--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 43083-2025</t>
+          <t>A 65215-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45909.6125925926</v>
+        <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -692,11 +692,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>13.7</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -726,6 +731,101 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tretåig hackspett
+Vedtrappmossa
+Flagellkvastmossa
+Gulnål
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 43083-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45909.6125925926</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -736,135 +836,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 65215-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tretåig hackspett
-Vedtrappmossa
-Flagellkvastmossa
-Gulnål
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41623-2024</t>
+          <t>A 65216-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45560</v>
+        <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,20 +985,25 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1010,15 +1015,103 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tallriska
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41623-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skuggmalmätare
 Brunflammig fältmätare
@@ -1026,124 +1119,31 @@
 Ligusterfly</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65216-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tallriska
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,14 +1330,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 62105-2022</t>
+          <t>A 49157-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44920</v>
+        <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,16 +1350,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1384,222 +1384,222 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 62105-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 53729-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45614</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>14</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Smal svampklubba</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 57978-2025</t>
+          <t>A 13233-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45982.39730324074</v>
+        <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,26 +1611,21 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1641,41 +1636,41 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tunnvingemätare</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
@@ -1689,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1856,14 +1851,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13233-2023</t>
+          <t>A 57978-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45002.7306712963</v>
+        <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,11 +1870,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1900,41 +1900,41 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tunnvingemätare</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3272,14 +3272,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3329,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44790</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3614,14 +3614,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3635,11 +3635,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45868</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3733,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45089</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,8 +3752,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3790,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,8 +3814,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3847,14 +3857,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,13 +3876,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3909,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3966,14 +3971,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45832</v>
+        <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3985,8 +3990,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4033,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,13 +4052,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4085,14 +4090,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45736</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4105,7 +4110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4142,14 +4147,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45265</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4161,13 +4166,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>12.8</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4204,14 +4204,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4223,8 +4223,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4261,14 +4266,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4280,13 +4285,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44917</v>
+        <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4404,13 +4404,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4447,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45531</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4472,7 +4467,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>21.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4509,14 +4504,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45736</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4528,13 +4523,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>10.8</v>
+        <v>8.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4590,8 +4580,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4628,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45825</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4643,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>44524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4705,7 +4700,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,14 +4737,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45895</v>
+        <v>45124</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4767,7 +4762,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>11.9</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4804,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45895</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4823,13 +4818,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4866,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45897</v>
+        <v>45574</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4891,7 +4881,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4928,14 +4918,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4948,7 +4938,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4985,14 +4975,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45390</v>
+        <v>45832</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5004,13 +4994,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>17.8</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5047,14 +5032,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45897</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5072,7 +5057,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5109,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5128,13 +5113,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5171,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45897</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5196,7 +5176,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5233,14 +5213,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45975</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5258,7 +5238,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>10.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5295,14 +5275,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5316,11 +5296,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5357,14 +5337,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45897</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5378,11 +5358,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16.6</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5399,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45897</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5438,13 +5418,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5456,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5502,11 +5477,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5518,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45155</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5562,13 +5537,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5605,14 +5575,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5630,7 +5600,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>18.1</v>
+        <v>11.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5637,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45897</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5686,13 +5656,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5694,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45287</v>
+        <v>45895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5748,8 +5713,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5786,14 +5756,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5811,7 +5781,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>10.3</v>
+        <v>16.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5848,14 +5818,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44468.62</v>
+        <v>45897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5873,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5910,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5935,7 +5905,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5972,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5992,7 +5962,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6029,14 +5999,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45574</v>
+        <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6054,7 +6024,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6091,14 +6061,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45897</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6110,8 +6080,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6148,14 +6123,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45825</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6167,13 +6142,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6210,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6235,7 +6205,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6272,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6292,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6329,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45338</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6349,7 +6319,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6386,14 +6356,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45898</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6405,8 +6375,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6443,14 +6418,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45124</v>
+        <v>45575</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6443,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6505,14 +6480,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45124</v>
+        <v>45898</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6530,7 +6505,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>18.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6567,14 +6542,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6587,7 +6562,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6624,14 +6599,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6643,8 +6618,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6681,14 +6661,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45531</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,11 +6682,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>21.8</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6743,14 +6723,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,8 +6742,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6800,14 +6785,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6819,8 +6804,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6847,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,8 +6866,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>30.3</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6914,14 +6909,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45925</v>
+        <v>45903</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6939,7 +6934,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6976,14 +6971,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6995,8 +6990,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7033,14 +7033,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45107</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7095,14 +7095,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7114,13 +7114,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>17</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7157,14 +7152,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45901</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7182,7 +7177,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7219,14 +7214,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,8 +7233,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7276,14 +7276,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7333,14 +7333,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45827</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,8 +7352,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7390,14 +7395,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,8 +7414,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7447,14 +7457,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45448</v>
+        <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,8 +7476,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7504,14 +7519,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45897</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,8 +7538,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7561,14 +7581,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45145</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7581,7 +7601,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7618,14 +7638,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7643,7 +7663,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7680,14 +7700,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>44720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7701,11 +7721,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7742,14 +7762,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45934</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7767,7 +7787,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7804,14 +7824,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45934</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,13 +7843,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7866,14 +7881,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,8 +7900,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7923,14 +7943,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7948,7 +7968,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7985,14 +8005,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,13 +8024,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8047,14 +8062,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45934</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8068,11 +8083,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8109,14 +8124,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45155</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8129,7 +8144,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8166,14 +8181,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45925</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8187,11 +8202,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8228,14 +8243,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>44482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8249,11 +8264,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>17.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8290,14 +8305,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8309,8 +8324,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8347,14 +8367,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45934</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8366,13 +8386,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8409,14 +8424,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8428,13 +8443,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8471,14 +8481,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8490,13 +8500,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8533,14 +8538,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8554,11 +8559,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8595,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8614,13 +8619,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>45035</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8733,13 +8733,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8776,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45578</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8795,13 +8790,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8838,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44524</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8848,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8895,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8916,11 +8906,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8957,14 +8947,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45934</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8982,7 +8972,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>10.5</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9019,14 +9009,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45574</v>
+        <v>45934</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9044,7 +9034,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9081,14 +9071,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9100,8 +9090,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9138,14 +9133,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9157,8 +9152,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9195,14 +9195,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45835</v>
+        <v>45934</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9273,11 +9273,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9314,14 +9314,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,8 +9333,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9371,14 +9376,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45575</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9392,11 +9397,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9433,14 +9438,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44939</v>
+        <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9452,8 +9457,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9490,14 +9500,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9509,8 +9519,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9547,14 +9562,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45583</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9566,13 +9581,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9609,14 +9619,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9628,8 +9638,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9666,14 +9681,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44903</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9685,8 +9700,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9723,14 +9743,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44917</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9744,11 +9764,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9785,14 +9805,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9806,11 +9826,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>12.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9847,14 +9867,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45089</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9872,7 +9892,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9909,14 +9929,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9928,13 +9948,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9971,14 +9986,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44284</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9990,8 +10005,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10028,14 +10048,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45085</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10047,8 +10067,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10085,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44690</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10110,7 +10135,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>10.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10147,14 +10172,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45581</v>
+        <v>45085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10167,7 +10192,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10204,14 +10229,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45107</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10223,13 +10248,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10266,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45835</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10287,11 +10307,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10328,14 +10348,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45581</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,8 +10367,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10385,14 +10410,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44564</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,11 +10431,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10447,14 +10472,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10492,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.1</v>
+        <v>10.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10504,14 +10529,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10523,8 +10548,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10561,14 +10591,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44701</v>
+        <v>45769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10586,7 +10616,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10623,14 +10653,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45614</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10643,7 +10673,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10680,14 +10710,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45769</v>
+        <v>45614</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10699,13 +10729,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10742,14 +10767,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10799,14 +10824,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44720</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10820,11 +10845,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10861,14 +10886,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10881,7 +10906,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10918,14 +10943,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45614</v>
+        <v>45124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10937,8 +10962,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10975,14 +11005,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45614</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10995,7 +11025,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11032,14 +11062,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,11 +11083,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>11.2</v>
+        <v>4.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11094,14 +11124,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45583</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11119,7 +11149,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>16.8</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11156,14 +11186,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45583</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11175,13 +11205,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>24</v>
+        <v>3.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11218,14 +11243,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45638</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11238,7 +11263,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11275,14 +11300,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11294,8 +11319,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11332,14 +11362,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44734</v>
+        <v>45975</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11357,7 +11387,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11394,14 +11424,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11414,7 +11444,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11451,14 +11481,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45338</v>
+        <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11470,8 +11500,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11508,14 +11543,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45217</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11527,8 +11562,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11565,14 +11605,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11585,7 +11625,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11622,14 +11662,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45649</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11647,7 +11687,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11684,14 +11724,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11703,8 +11743,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11741,14 +11786,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45103</v>
+        <v>44284</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11760,13 +11805,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11803,14 +11843,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45608</v>
+        <v>45583</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11828,7 +11868,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11865,14 +11905,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44694</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11884,13 +11924,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11927,14 +11962,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45124</v>
+        <v>45611</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11952,7 +11987,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11989,14 +12024,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45581</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12009,7 +12044,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12046,14 +12081,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44790</v>
+        <v>44564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12065,8 +12100,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12103,14 +12143,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45155</v>
+        <v>45578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12122,8 +12162,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12160,14 +12205,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12180,7 +12225,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>8.4</v>
+        <v>30.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12217,14 +12262,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44482</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12236,13 +12281,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>17.8</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12279,14 +12319,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12299,7 +12339,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12336,14 +12376,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12356,7 +12396,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12393,14 +12433,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44817</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12418,7 +12458,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12455,14 +12495,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12474,13 +12514,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12517,14 +12552,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44938</v>
+        <v>45574</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12542,7 +12577,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>14.7</v>
+        <v>11.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12579,14 +12614,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44607</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12600,11 +12635,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12641,14 +12676,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44503</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12660,13 +12695,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12703,14 +12733,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45177</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12723,7 +12753,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12760,14 +12790,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44369</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,13 +12809,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12822,14 +12847,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45265</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12842,7 +12867,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12879,14 +12904,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>45614</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12899,7 +12924,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12936,14 +12961,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45035</v>
+        <v>44917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12955,8 +12980,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12993,14 +13023,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45145</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13012,8 +13042,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13050,14 +13085,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44916</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13071,11 +13106,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13112,14 +13147,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45030</v>
+        <v>45287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13131,13 +13166,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13174,14 +13204,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45518</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13194,7 +13224,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13231,14 +13261,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45526</v>
+        <v>45390</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13250,8 +13280,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>17.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13288,14 +13323,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13309,11 +13344,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13350,14 +13385,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45583</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13369,13 +13404,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13412,14 +13442,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45578</v>
+        <v>45526</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13431,13 +13461,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13474,14 +13499,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45611</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13493,13 +13518,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13536,14 +13556,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45578</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13555,13 +13575,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13598,14 +13613,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>44690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13617,8 +13632,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13655,14 +13675,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45103</v>
+        <v>44903</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13674,13 +13694,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13717,14 +13732,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
         <v>45578</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13742,7 +13757,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13779,14 +13794,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44690</v>
+        <v>45578</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13804,7 +13819,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13841,14 +13856,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45638</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13860,8 +13875,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13898,14 +13918,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44503</v>
+        <v>45124</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13923,7 +13943,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13960,14 +13980,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13980,7 +14000,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14017,14 +14037,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45103</v>
+        <v>44938</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14062,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>10.4</v>
+        <v>14.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14079,14 +14099,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>44701</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14124,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14141,14 +14161,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>44690</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14160,8 +14180,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14198,14 +14223,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45698</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14217,8 +14242,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14255,14 +14285,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45593</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14274,8 +14304,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14312,14 +14347,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>44916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14372,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>10.8</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14374,14 +14409,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14393,13 +14428,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14436,14 +14466,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44956</v>
+        <v>45030</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14457,11 +14487,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14498,14 +14528,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45106</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14517,13 +14547,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14560,14 +14585,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45797</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14579,8 +14604,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14617,14 +14647,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14636,13 +14666,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14679,14 +14704,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45776</v>
+        <v>45533.9425</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14699,7 +14724,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14736,14 +14761,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>44939</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14755,13 +14780,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14798,14 +14818,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>44468.62</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14819,11 +14839,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14860,14 +14880,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14880,7 +14900,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>8.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14917,14 +14937,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>44817</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14938,11 +14958,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14979,14 +14999,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>44607</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15000,11 +15020,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15041,14 +15061,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45177</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15060,13 +15080,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15103,14 +15118,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15122,13 +15137,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15165,14 +15175,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15186,11 +15196,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15227,14 +15237,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45103</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15248,11 +15258,11 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15289,14 +15299,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15310,11 +15320,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15351,14 +15361,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15376,7 +15386,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15413,14 +15423,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45827</v>
+        <v>44694</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15438,7 +15448,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15475,14 +15485,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45827</v>
+        <v>45583</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15500,7 +15510,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.3</v>
+        <v>16.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15537,14 +15547,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45583</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15558,11 +15568,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>24</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15599,14 +15609,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45103</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15620,11 +15630,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.1</v>
+        <v>10.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15661,14 +15671,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15682,11 +15692,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15723,14 +15733,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15742,13 +15752,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15785,14 +15790,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45698</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15804,13 +15809,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15847,14 +15847,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>9.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15904,14 +15904,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15925,11 +15925,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.3</v>
+        <v>10.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15966,14 +15966,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15987,11 +15987,11 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>12.8</v>
+        <v>4.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16047,8 +16047,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16085,14 +16090,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45106</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16106,11 +16111,11 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16166,13 +16171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>45112.6903125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45089</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44442.55688657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45419.58890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45419.59212962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>45265</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44999.69774305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>45531</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45736</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45419.61329861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>45124</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45638.89708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45574</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45638.90166666666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45832</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45807.45302083333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45889.33067129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45890.41994212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45812.61592592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45812.61828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45463.72734953704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45771.38807870371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45155</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>45555.48539351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>45897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45568.37403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45897</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45825</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45897</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45338</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45898</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45575</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>45898</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>45754.28462962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45821.35517361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>45821.39295138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45821.40370370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45821.39887731482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45821.38925925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45903</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>45608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>45107</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45909.60773148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45825.36898148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45821.42728009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45911.73936342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>45827</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45826.52493055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45897</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45145</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45916.64740740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45086.3722337963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45919.26885416666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45832.40206018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45832.40581018518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44858.57143518519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>45832.39780092592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45923.55998842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45925</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45832.39980324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45929.57790509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45929.57561342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45931.36796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45035</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45930.61648148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45933.48327546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45839.59601851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45934</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45934</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45936.4577199074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>45936.38331018519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45841.46513888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>45934</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45936.45064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45936.37960648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45936.39302083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45840.59094907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45937.53335648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45937.52811342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45937.53585648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45841.67148148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45937.52383101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>45937.56372685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45841.63055555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45937.52623842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45943.37494212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45946.59532407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45835</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45852.48940972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>45852.47094907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45951.54322916667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45659.54782407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45614</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45835.39809027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45638.5459375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45638.89961805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45835.39456018519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45959.35993055555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44739.57129629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45638</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44847.4584375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45975</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44880.49702546297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45980.43373842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>44565.68466435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45980.42310185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45771.38583333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44284</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45583</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45106.49378472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45611</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45581</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>46037.58800925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>46037.64480324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44348.6058449074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>46044.41157407407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45574</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>46002.33436342593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45751.54487268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>46043.37194444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>46049.55364583333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45614</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45771.37377314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45771.38315972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>45287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44999.65438657408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>45390</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>46013.30025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45394.59287037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45526</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45239.51128472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45614.67206018518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44903</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>45578</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45578</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44874.49135416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45124</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45614.67861111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44938</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>44701</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44690</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44438.4766087963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45111.5005787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45347.84356481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45030</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44895.46328703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44720.61091435186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45533.9425</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44939</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44468.62</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45468.65731481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44817</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44607</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45177</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45757.4027199074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45103</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45764.54383101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44694</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45583</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45583</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45103</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45478.6056712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45698</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45387.40418981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45110.5818287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45142.49333333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45106</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45614</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>45112.6903125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45089</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44442.55688657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45419.58890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45419.59212962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>45265</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44999.69774305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>45531</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45736</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45419.61329861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>45124</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45638.89708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>45574</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45638.90166666666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45832</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45807.45302083333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45776</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45889.33067129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45890.41994212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45812.61592592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>45812.61828703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>45463.72734953704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>45771.38807870371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45155</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>45555.48539351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>45897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45568.37403935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>45897</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45825</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45897</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45338</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45898</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45575</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>45898</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>45754.28462962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45821.35517361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>45821.39295138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45821.40370370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45821.39887731482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45821.38925925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45903</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>45608</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>45107</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45909.60773148148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45825.36898148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45821.42728009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45911.73936342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>45827</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45826.52493055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45827</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45897</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45145</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45916.64740740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>44720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45086.3722337963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45919.26885416666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45832.40206018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45832.40581018518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>44858.57143518519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>45832.39780092592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45923.55998842593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45925</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45832.39980324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45929.57790509259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45155</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45929.57561342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45901</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45931.36796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45035</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45930.61648148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>45933.48327546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45839.59601851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45934</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45934</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45936.4577199074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>45936.38331018519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45841.46513888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>45934</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45936.45064814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45936.37960648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>45936.39302083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45840.59094907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45937.53335648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45937.52811342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45937.53585648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45841.67148148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45937.52383101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>45937.56372685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45841.63055555556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45937.52623842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45943.37494212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45946.59532407407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45835</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45852.48940972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>45852.47094907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45951.54322916667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45769</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45659.54782407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45614</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45835.39809027778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45638.5459375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45638.89961805556</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45835.39456018519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45959.35993055555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44739.57129629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45638</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44847.4584375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45975</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44880.49702546297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45980.43373842593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>44565.68466435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>45980.42310185185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45771.38583333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44284</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45583</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>45106.49378472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45611</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45581</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44564</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45578</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>46037.58800925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>46037.64480324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>44348.6058449074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>46044.41157407407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45574</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>46002.33436342593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45751.54487268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>46043.37194444444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>46049.55364583333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45614</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45771.37377314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45771.38315972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>45287</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>44999.65438657408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>45390</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>46013.30025462963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45394.59287037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45526</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45239.51128472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45614.67206018518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>44690</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44903</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>45578</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45578</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44874.49135416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>45124</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45614.67861111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44938</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>44701</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44690</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44438.4766087963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45111.5005787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45347.84356481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45030</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44895.46328703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44720.61091435186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45533.9425</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44939</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44468.62</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45468.65731481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44817</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44607</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45177</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45757.4027199074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45103</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45103</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45764.54383101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44694</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45583</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45583</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>45103</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45478.6056712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>45593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>45698</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45387.40418981481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45110.5818287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45142.49333333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>45106</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 65215-2021</t>
+          <t>A 43083-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44515</v>
+        <v>45909.6125925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -692,16 +692,11 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>13.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -731,6 +726,106 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Talltita
+Tretåig hackspett
+Dropptaggsvamp
+Rödgul trumpetsvamp
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 65215-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -741,130 +836,35 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 43083-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45909.6125925926</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Talltita
-Tretåig hackspett
-Dropptaggsvamp
-Rödgul trumpetsvamp
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 65216-2021</t>
+          <t>A 41623-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44515</v>
+        <v>45560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,25 +985,20 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1015,15 +1010,108 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skuggmalmätare
+Brunflammig fältmätare
+Glimmalmätare
+Ligusterfly</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65216-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -1031,119 +1119,31 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41623-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skuggmalmätare
-Brunflammig fältmätare
-Glimmalmätare
-Ligusterfly</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,14 +1239,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49300-2025</t>
+          <t>A 62105-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45936</v>
+        <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,16 +1258,11 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1276,330 +1271,335 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 49300-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Ullticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 53729-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Aspfjädermossa
+Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 49157-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45210</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Rödgul trumpetsvamp
 Skogshakmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 62105-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53729-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Aspfjädermossa
-Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13233-2023</t>
+          <t>A 56179-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45002.7306712963</v>
+        <v>45623</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1636,308 +1636,308 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 24791-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45460</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 57978-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45982.39730324074</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 13233-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45002.7306712963</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Tunnvingemätare</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 56179-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 24791-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45460</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 57978-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45982.39730324074</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,14 +2573,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>23</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3272,14 +3272,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44790</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3329,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45614</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3614,14 +3614,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45649</v>
+        <v>45390</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.3</v>
+        <v>17.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,8 +3695,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45089</v>
+        <v>45287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,13 +3757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44503</v>
+        <v>44468.62</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3857,14 +3857,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3876,8 +3876,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3919,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45574</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3933,8 +3938,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3971,14 +3981,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45583</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3990,13 +4000,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4033,14 +4038,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4053,7 +4058,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4090,14 +4095,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4110,7 +4115,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4147,14 +4152,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45265</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4167,7 +4172,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4204,14 +4209,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44503</v>
+        <v>45124</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4234,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4266,14 +4271,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45124</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4285,8 +4290,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4333,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44734</v>
+        <v>45531</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4348,7 +4358,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>21.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4405,7 +4415,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,14 +4452,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45531</v>
+        <v>45448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4461,13 +4471,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>21.8</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4504,14 +4509,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45736</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4524,7 +4529,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.9</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4566,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4580,13 +4585,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45155</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44524</v>
+        <v>45578</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4699,8 +4699,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4737,14 +4742,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45124</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4758,11 +4763,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4804,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45574</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4818,8 +4823,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>11.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4856,14 +4866,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45574</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,11 +4887,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4918,14 +4928,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,8 +4947,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4975,14 +4990,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4994,8 +5009,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5032,14 +5052,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,11 +5073,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5094,14 +5114,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45776</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,8 +5133,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5151,14 +5176,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5172,11 +5197,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5213,14 +5238,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5234,11 +5259,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>10.8</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5275,14 +5300,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5296,11 +5321,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5337,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,11 +5383,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5399,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>44939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5419,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5456,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,11 +5502,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5518,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45155</v>
+        <v>45827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5537,8 +5562,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5575,14 +5605,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45895</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5596,11 +5626,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.9</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5637,14 +5667,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5656,8 +5686,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5694,14 +5729,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45895</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5715,11 +5750,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5756,14 +5791,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45897</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5777,11 +5812,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>16.6</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5818,14 +5853,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45897</v>
+        <v>45583</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5878,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5915,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45897</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,13 +5934,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5942,14 +5972,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45832</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5962,7 +5992,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5999,14 +6029,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45897</v>
+        <v>45533.9425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6018,13 +6048,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6061,14 +6086,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45897</v>
+        <v>44903</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6080,13 +6105,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6123,14 +6143,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45825</v>
+        <v>45089</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6142,8 +6162,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6205,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45897</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6230,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6267,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45448</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6261,8 +6286,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>10.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6329,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45338</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6318,8 +6348,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6391,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45898</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6375,13 +6410,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6418,14 +6448,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45575</v>
+        <v>45085</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6437,13 +6467,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6480,14 +6505,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45898</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6499,13 +6524,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>18.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6542,14 +6562,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6561,8 +6581,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6599,14 +6624,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45825</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6618,13 +6643,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6661,14 +6681,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45895</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6682,11 +6702,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>11.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6723,14 +6743,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,11 +6764,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.5</v>
+        <v>12.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6785,14 +6805,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6804,13 +6824,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6847,14 +6862,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>44690</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6868,11 +6883,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6909,14 +6924,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45903</v>
+        <v>45581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6928,13 +6943,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6971,14 +6981,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45608</v>
+        <v>45895</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7033,14 +7043,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45107</v>
+        <v>45897</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7054,11 +7064,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7095,14 +7105,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7114,8 +7124,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7152,14 +7167,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45107</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7173,11 +7188,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7214,14 +7229,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45897</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7235,7 +7250,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -7276,14 +7291,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45898</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,8 +7310,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7333,14 +7353,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45827</v>
+        <v>45897</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7358,7 +7378,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>16.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7395,14 +7415,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45897</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7416,11 +7436,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7457,14 +7477,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45827</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7482,7 +7502,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7519,14 +7539,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7544,7 +7564,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>18.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7581,14 +7601,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45145</v>
+        <v>45897</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7600,8 +7620,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7638,14 +7663,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7659,11 +7684,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7700,14 +7725,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44720</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7721,11 +7746,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7762,14 +7787,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7787,7 +7812,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>10.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7824,14 +7849,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7844,7 +7869,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7881,14 +7906,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,13 +7925,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7943,14 +7963,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>44701</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7964,11 +7984,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8005,14 +8025,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8045,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8062,14 +8082,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8107,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8124,14 +8144,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45868</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8164,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8181,14 +8201,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45925</v>
+        <v>45769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8226,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8243,14 +8263,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44482</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8262,13 +8282,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8305,14 +8320,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8324,13 +8339,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8367,14 +8377,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8397,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8424,14 +8434,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45155</v>
+        <v>44720</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8443,8 +8453,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8481,14 +8496,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8516,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8538,14 +8553,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45901</v>
+        <v>45614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8557,13 +8572,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8610,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45581</v>
+        <v>45614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8620,7 +8630,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8667,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8676,8 +8686,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>6.1</v>
+        <v>11.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8729,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45035</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8749,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8786,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8790,8 +8805,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8828,14 +8848,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45897</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8847,8 +8867,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8885,14 +8910,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8906,11 +8931,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8947,14 +8972,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45934</v>
+        <v>44734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8972,7 +8997,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9009,14 +9034,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45934</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9028,13 +9053,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9071,14 +9091,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9090,13 +9110,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9133,14 +9148,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45925</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9154,11 +9169,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9195,14 +9210,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45901</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9214,8 +9229,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9252,14 +9272,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45934</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,13 +9291,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9314,14 +9329,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9333,13 +9348,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9376,14 +9386,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9395,13 +9405,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9438,14 +9443,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45934</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9457,13 +9462,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9500,14 +9500,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9519,13 +9519,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9562,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,8 +9576,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9619,14 +9619,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45934</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9640,11 +9640,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9681,14 +9681,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9702,11 +9702,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9743,14 +9743,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9762,13 +9762,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9805,14 +9800,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9826,11 +9821,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>12.8</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9867,14 +9862,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9892,7 +9887,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9929,14 +9924,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45934</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9948,8 +9943,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9986,14 +9986,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,11 +10007,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10048,14 +10048,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10110,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10129,13 +10129,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10172,14 +10167,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45085</v>
+        <v>45934</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10191,8 +10186,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10248,8 +10248,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10286,14 +10291,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45835</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10311,7 +10316,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10348,14 +10353,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10369,11 +10374,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10410,14 +10415,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10431,11 +10436,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10472,14 +10477,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10491,8 +10496,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>10.8</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10529,14 +10539,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44369</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10548,13 +10558,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10591,14 +10596,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45769</v>
+        <v>45736</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10610,13 +10615,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10653,14 +10653,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,8 +10672,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>6.5</v>
+        <v>12.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10710,14 +10715,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45614</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,8 +10734,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10767,14 +10777,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45868</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,8 +10796,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10824,14 +10839,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,13 +10858,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10886,14 +10896,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10906,7 +10916,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10943,14 +10953,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45124</v>
+        <v>45835</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10964,11 +10974,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11005,14 +11015,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>44917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11024,8 +11034,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11062,14 +11077,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11083,11 +11098,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11124,14 +11139,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11149,7 +11164,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11186,14 +11201,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11206,7 +11221,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.1</v>
+        <v>10.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11243,14 +11258,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45638</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11263,7 +11278,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11300,14 +11315,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11325,7 +11340,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11362,14 +11377,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45975</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11383,11 +11398,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11424,14 +11439,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11443,8 +11458,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11481,14 +11501,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44917</v>
+        <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11500,13 +11520,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11543,14 +11558,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>44917</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11568,7 +11583,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11605,14 +11620,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>44284</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11625,7 +11640,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11662,14 +11677,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45581</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,13 +11696,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11724,14 +11734,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>44564</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11745,11 +11755,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11786,14 +11796,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44284</v>
+        <v>45614</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11806,7 +11816,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11843,14 +11853,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45583</v>
+        <v>45975</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11868,7 +11878,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11905,14 +11915,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,8 +11934,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11962,14 +11977,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45611</v>
+        <v>45583</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11987,7 +12002,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8.6</v>
+        <v>16.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12024,14 +12039,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45581</v>
+        <v>45583</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12043,8 +12058,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12081,14 +12101,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44564</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12106,7 +12126,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12143,14 +12163,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45578</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12162,13 +12182,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12205,14 +12220,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12225,7 +12240,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>30.3</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12262,14 +12277,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12282,7 +12297,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12319,14 +12334,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44790</v>
+        <v>45338</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12339,7 +12354,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12383,7 +12398,7 @@
         <v>45217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12433,14 +12448,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12452,13 +12467,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12495,14 +12505,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45649</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12514,8 +12524,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12552,14 +12567,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45574</v>
+        <v>45103</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12577,7 +12592,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12614,14 +12629,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12633,13 +12648,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>30.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12676,14 +12686,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12696,7 +12706,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12733,14 +12743,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45608</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,8 +12762,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12790,14 +12805,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12809,8 +12824,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12847,14 +12867,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45124</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,8 +12886,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12904,14 +12929,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45614</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12924,7 +12949,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12961,14 +12986,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44917</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12986,7 +13011,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13023,14 +13048,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13042,13 +13067,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13085,14 +13105,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13104,13 +13124,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13147,14 +13162,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45287</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13167,7 +13182,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13204,14 +13219,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>44790</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13224,7 +13239,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13261,14 +13276,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45390</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13280,13 +13295,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>17.8</v>
+        <v>2.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13323,14 +13333,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45155</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,13 +13352,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13385,14 +13390,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13405,7 +13410,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13442,14 +13447,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45526</v>
+        <v>44482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13461,8 +13466,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>17.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13499,14 +13509,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13519,7 +13529,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13556,14 +13566,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13576,7 +13586,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13613,14 +13623,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13638,7 +13648,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13675,14 +13685,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44903</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13694,8 +13704,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13732,14 +13747,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45578</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13757,7 +13772,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13794,14 +13809,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45578</v>
+        <v>44938</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13819,7 +13834,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.7</v>
+        <v>14.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13856,14 +13871,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>44607</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13877,11 +13892,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13918,14 +13933,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45124</v>
+        <v>44503</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13943,7 +13958,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13980,14 +13995,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45177</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14000,7 +14015,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14037,14 +14052,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44938</v>
+        <v>44369</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14062,7 +14077,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>14.7</v>
+        <v>3.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14099,14 +14114,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44701</v>
+        <v>45265</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14118,13 +14133,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14161,14 +14171,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44690</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14180,13 +14190,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14223,14 +14228,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>45035</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14242,13 +14247,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14285,14 +14285,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45145</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,13 +14304,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14354,7 +14349,7 @@
         <v>44916</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14409,14 +14404,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>45030</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14428,8 +14423,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14466,14 +14466,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45030</v>
+        <v>45518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14485,13 +14485,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14528,14 +14523,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>45526</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14548,7 +14543,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14585,14 +14580,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14606,11 +14601,11 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14647,14 +14642,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45518</v>
+        <v>45583</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14666,8 +14661,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14704,14 +14704,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45578</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14723,8 +14723,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14761,14 +14766,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44939</v>
+        <v>45611</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14780,8 +14785,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14818,14 +14828,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44468.62</v>
+        <v>45578</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14843,7 +14853,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14880,14 +14890,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14900,7 +14910,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14937,14 +14947,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44817</v>
+        <v>45103</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14962,7 +14972,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14999,14 +15009,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44607</v>
+        <v>45578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15020,11 +15030,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15061,14 +15071,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45177</v>
+        <v>44690</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15080,8 +15090,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15118,14 +15133,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15138,7 +15153,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15175,14 +15190,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45103</v>
+        <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15200,7 +15215,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15237,14 +15252,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45103</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15256,13 +15271,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15299,14 +15309,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45578</v>
+        <v>45103</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15324,7 +15334,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>5</v>
+        <v>10.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15361,14 +15371,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15386,7 +15396,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15423,14 +15433,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44694</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,13 +15452,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15485,14 +15490,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45583</v>
+        <v>45698</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15504,13 +15509,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>16.8</v>
+        <v>2.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15547,14 +15547,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45583</v>
+        <v>45593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15566,13 +15566,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>24</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15609,14 +15604,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45103</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15634,7 +15629,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15671,14 +15666,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15696,7 +15691,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15733,14 +15728,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45593</v>
+        <v>44956</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15752,8 +15747,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15790,14 +15790,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45698</v>
+        <v>45106</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15809,8 +15809,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15847,14 +15852,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45797</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15867,7 +15872,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15904,14 +15909,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15929,7 +15934,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15966,14 +15971,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45776</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15985,13 +15990,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44956</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16049,11 +16049,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16090,14 +16090,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45106</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16111,11 +16111,11 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16152,14 +16152,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45797</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 43083-2025</t>
+          <t>A 65215-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45909.6125925926</v>
+        <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -692,11 +692,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>13.7</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -726,6 +731,101 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tretåig hackspett
+Vedtrappmossa
+Flagellkvastmossa
+Gulnål
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 43083-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45909.6125925926</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -736,135 +836,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 65215-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tretåig hackspett
-Vedtrappmossa
-Flagellkvastmossa
-Gulnål
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41623-2024</t>
+          <t>A 65216-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45560</v>
+        <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,20 +985,25 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1010,15 +1015,103 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tallriska
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41623-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skuggmalmätare
 Brunflammig fältmätare
@@ -1026,124 +1119,31 @@
 Ligusterfly</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65216-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tallriska
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,14 +1239,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 62105-2022</t>
+          <t>A 49300-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44920</v>
+        <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,11 +1258,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1283,323 +1288,318 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
         <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rynkskinn
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 49157-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 62105-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49300-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 53729-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 53729-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Smal svampklubba</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 56179-2024</t>
+          <t>A 13233-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45623</v>
+        <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,20 +1612,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1636,308 +1636,308 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tunnvingemätare</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 56179-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 24791-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45460</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>3.9</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 57978-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45982.39730324074</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 13233-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45002.7306712963</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tunnvingemätare</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44435</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3272,14 +3272,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3329,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44790</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45895</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,8 +3576,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>11.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3614,14 +3619,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45390</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3633,13 +3638,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>17.8</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45895</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3738,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45287</v>
+        <v>45649</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3757,8 +3757,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3800,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44468.62</v>
+        <v>45897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3820,7 +3825,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>16.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3857,14 +3862,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>44607</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3878,11 +3883,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3919,14 +3924,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45574</v>
+        <v>45897</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3944,7 +3949,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3981,14 +3986,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>45897</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4000,8 +4005,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4038,14 +4048,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45177</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4058,7 +4068,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4095,14 +4105,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45089</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4114,8 +4124,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4152,14 +4167,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4172,7 +4187,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4209,14 +4224,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45124</v>
+        <v>45614</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4228,13 +4243,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4271,14 +4281,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45124</v>
+        <v>45832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4290,13 +4300,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4333,14 +4338,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45531</v>
+        <v>45897</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4358,7 +4363,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>21.8</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4395,14 +4400,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4415,7 +4420,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4452,14 +4457,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45448</v>
+        <v>45897</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4471,8 +4476,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4509,14 +4519,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45825</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4529,7 +4539,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4566,14 +4576,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4585,8 +4595,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4623,14 +4638,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45155</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4643,7 +4658,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4680,14 +4695,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45578</v>
+        <v>45103</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4705,7 +4720,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4742,14 +4757,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,11 +4778,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4804,14 +4819,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45574</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4823,13 +4838,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>11.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4866,14 +4876,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4887,11 +4897,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4928,14 +4938,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45898</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4949,11 +4959,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4990,14 +5000,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5009,13 +5019,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5052,14 +5057,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45265</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5071,13 +5076,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5114,14 +5114,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>44503</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,11 +5135,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5176,14 +5176,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45578</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5197,11 +5197,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5238,14 +5238,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5259,11 +5259,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>10.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5300,14 +5300,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45575</v>
+        <v>45583</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44939</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45827</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,13 +5500,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45827</v>
+        <v>45898</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5568,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>18.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5605,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>44503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5626,11 +5621,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5662,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>44694</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5688,11 +5683,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5724,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5748,13 +5743,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5791,14 +5781,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>44734</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5812,11 +5802,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5853,14 +5843,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45583</v>
+        <v>45903</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5878,7 +5868,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>10.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5915,14 +5905,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45583</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5934,8 +5924,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>16.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5972,14 +5967,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45832</v>
+        <v>45583</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5991,8 +5986,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>24</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6029,14 +6029,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45736</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6086,14 +6086,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44903</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6143,14 +6143,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45089</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6162,13 +6162,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6205,14 +6200,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45531</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6230,7 +6225,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.6</v>
+        <v>21.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6267,14 +6262,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6292,7 +6287,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>10.8</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6329,14 +6324,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6348,13 +6343,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6391,14 +6381,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45103</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6410,8 +6400,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>10.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6448,14 +6443,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45085</v>
+        <v>44524</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6463,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6505,14 +6500,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6524,8 +6519,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>9.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6581,13 +6581,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6624,14 +6619,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45825</v>
+        <v>45124</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6643,8 +6638,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6681,14 +6681,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45895</v>
+        <v>45593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6700,13 +6700,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6743,14 +6738,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6762,13 +6757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>12.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6805,14 +6795,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45574</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6824,8 +6814,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6862,14 +6857,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44690</v>
+        <v>45698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6881,13 +6876,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6924,14 +6914,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45581</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6944,7 +6934,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6981,14 +6971,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45895</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7006,7 +6996,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>10.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7043,14 +7033,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45897</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7068,7 +7058,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7105,14 +7095,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7130,7 +7120,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7167,14 +7157,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45107</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7188,11 +7178,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7229,14 +7219,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45897</v>
+        <v>44956</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7254,7 +7244,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7291,14 +7281,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45898</v>
+        <v>45106</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7316,7 +7306,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7353,14 +7343,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45897</v>
+        <v>45797</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7372,13 +7362,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>16.6</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7415,14 +7400,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45897</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7434,13 +7419,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7477,14 +7457,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7496,13 +7476,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7539,14 +7514,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45898</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7560,11 +7535,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>18.1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7601,14 +7576,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45897</v>
+        <v>45155</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7620,13 +7595,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7663,14 +7633,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7684,11 +7654,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7725,14 +7695,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45448</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7742,11 +7712,6 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -7787,14 +7752,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45903</v>
+        <v>45776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7806,13 +7771,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>10.3</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7849,14 +7809,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45338</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7869,7 +7829,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7906,14 +7866,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7926,7 +7886,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7963,14 +7923,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44701</v>
+        <v>45925</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7988,7 +7948,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8025,14 +7985,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45575</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8044,8 +8004,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8082,14 +8047,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8101,13 +8066,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8144,14 +8104,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45868</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8163,8 +8123,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8201,14 +8166,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45769</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8222,11 +8187,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8263,14 +8228,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8282,8 +8247,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8320,14 +8290,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8340,7 +8310,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8377,14 +8347,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45107</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8396,8 +8366,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8434,14 +8409,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44720</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8453,13 +8428,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8496,14 +8466,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8516,7 +8486,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8553,14 +8523,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45614</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8572,8 +8542,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8610,14 +8585,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45614</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,8 +8604,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8667,14 +8647,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8688,11 +8668,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>11.2</v>
+        <v>8.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8729,14 +8709,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8748,8 +8728,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8786,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8807,11 +8792,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8848,14 +8833,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45897</v>
+        <v>45145</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8867,13 +8852,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8910,14 +8890,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45901</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8931,11 +8911,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8972,14 +8952,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44734</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8997,7 +8977,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9034,14 +9014,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9053,8 +9033,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9091,14 +9076,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>44720</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9110,8 +9095,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9148,14 +9138,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45925</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9173,7 +9163,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9210,14 +9200,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45901</v>
+        <v>45827</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9235,7 +9225,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9272,14 +9262,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9291,8 +9281,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9329,14 +9324,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45827</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9348,8 +9343,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9386,14 +9386,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9443,14 +9443,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9500,14 +9500,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9519,8 +9519,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9557,14 +9562,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9582,7 +9587,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9619,14 +9624,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45934</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9640,11 +9645,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9681,14 +9686,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45934</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9698,11 +9703,6 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -9743,14 +9743,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>44482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9762,8 +9762,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>17.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9800,14 +9805,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9862,14 +9867,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45155</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9879,11 +9884,6 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -9924,14 +9924,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45934</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9943,13 +9943,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9986,14 +9981,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,11 +10002,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10048,14 +10043,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>45934</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10069,11 +10064,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10110,14 +10105,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10129,8 +10124,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10167,14 +10167,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45934</v>
+        <v>45581</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10186,13 +10186,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10229,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10254,7 +10249,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10291,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45035</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10310,13 +10305,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10353,14 +10343,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10372,13 +10362,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10415,14 +10400,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10434,13 +10419,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10477,14 +10457,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10502,7 +10482,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10539,14 +10519,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45934</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,8 +10538,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10596,14 +10581,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45736</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,8 +10600,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>8.9</v>
+        <v>12.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10653,14 +10643,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10674,11 +10664,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>12.8</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10715,14 +10705,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10740,7 +10730,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10777,14 +10767,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10802,7 +10792,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10839,14 +10829,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10858,8 +10848,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10896,14 +10891,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10915,8 +10910,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10953,14 +10953,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45835</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11015,14 +11015,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44917</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11036,11 +11036,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11077,14 +11077,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11098,11 +11098,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11139,14 +11139,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11160,11 +11160,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11201,14 +11201,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>10.8</v>
+        <v>4.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11258,14 +11258,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11277,8 +11277,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11315,14 +11320,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11336,11 +11341,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11377,14 +11382,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11398,11 +11403,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11439,14 +11444,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11460,11 +11465,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11501,14 +11506,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44524</v>
+        <v>45085</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11521,7 +11526,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11558,14 +11563,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44917</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11577,13 +11582,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11620,14 +11620,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44284</v>
+        <v>45868</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11677,14 +11677,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45581</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,8 +11696,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11734,14 +11739,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44564</v>
+        <v>44369</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11759,7 +11764,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11796,14 +11801,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45614</v>
+        <v>45769</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11815,8 +11820,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>7.1</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11853,14 +11863,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45975</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11872,13 +11882,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11915,14 +11920,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11936,11 +11941,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11977,14 +11982,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45583</v>
+        <v>45614</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11996,13 +12001,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>16.8</v>
+        <v>4.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12039,14 +12039,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45583</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12058,13 +12058,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>24</v>
+        <v>0.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12101,14 +12096,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45124</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12126,7 +12121,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12163,14 +12158,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12183,7 +12178,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12220,14 +12215,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45835</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,8 +12234,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12277,14 +12277,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.3</v>
+        <v>10.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12334,14 +12334,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45338</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12391,14 +12391,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45217</v>
+        <v>45638</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12448,14 +12448,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12467,8 +12467,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12505,14 +12510,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45649</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12530,7 +12535,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12567,14 +12572,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45103</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12586,13 +12591,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12629,14 +12629,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>44917</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12648,8 +12648,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>30.3</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12686,14 +12691,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12706,7 +12711,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12743,14 +12748,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45608</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12764,11 +12769,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12805,14 +12810,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44694</v>
+        <v>44284</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12824,13 +12829,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12867,14 +12867,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45124</v>
+        <v>45975</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12929,14 +12929,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45583</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12948,8 +12948,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12986,14 +12991,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +13016,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13048,14 +13053,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13067,8 +13072,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13105,14 +13115,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13135,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13162,14 +13172,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45611</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13181,8 +13191,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4.6</v>
+        <v>8.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13219,14 +13234,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44790</v>
+        <v>45581</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13239,7 +13254,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13276,14 +13291,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>44564</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13295,8 +13310,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13333,14 +13353,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45155</v>
+        <v>45578</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13352,8 +13372,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13390,14 +13415,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>44790</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13435,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13447,14 +13472,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44482</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13466,13 +13491,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>17.8</v>
+        <v>30.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13509,14 +13529,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13549,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13566,14 +13586,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45217</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13606,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13623,14 +13643,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44817</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13648,7 +13668,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13685,14 +13705,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45574</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13710,7 +13730,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.7</v>
+        <v>11.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13747,14 +13767,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13766,13 +13786,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13809,14 +13824,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44938</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13828,13 +13843,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>14.7</v>
+        <v>3.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13871,14 +13881,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44607</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,11 +13902,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13933,14 +13943,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44503</v>
+        <v>45614</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13952,13 +13962,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13995,14 +14000,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45177</v>
+        <v>44917</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14014,8 +14019,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14052,14 +14062,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44369</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14073,11 +14083,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14114,14 +14124,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45265</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,8 +14143,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14171,14 +14186,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14191,7 +14206,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14228,14 +14243,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45035</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14285,14 +14300,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45145</v>
+        <v>45287</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14305,7 +14320,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14342,14 +14357,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44916</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,13 +14376,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14404,14 +14414,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45030</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14423,13 +14433,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14466,14 +14471,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45518</v>
+        <v>45390</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14485,8 +14490,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>5.9</v>
+        <v>17.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14523,14 +14533,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45526</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14543,7 +14553,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14580,14 +14590,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>45526</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14599,13 +14609,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14642,14 +14647,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45583</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14661,13 +14666,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14704,14 +14704,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45578</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14723,13 +14723,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14766,14 +14761,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45611</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14791,7 +14786,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14828,14 +14823,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45578</v>
+        <v>44690</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14853,7 +14848,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14890,14 +14885,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>44903</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14910,7 +14905,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14947,14 +14942,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45103</v>
+        <v>45578</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14972,7 +14967,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15009,14 +15004,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
         <v>45578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15034,7 +15029,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15071,14 +15066,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44690</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15096,7 +15091,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15133,14 +15128,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45638</v>
+        <v>45124</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,8 +15147,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15190,14 +15190,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44503</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,13 +15209,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15252,14 +15247,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>44938</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,8 +15266,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>4.6</v>
+        <v>14.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15309,14 +15309,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45103</v>
+        <v>44701</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>10.4</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15371,14 +15371,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>44690</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15433,14 +15433,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15452,8 +15452,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15490,14 +15495,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45698</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15509,8 +15514,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2.5</v>
+        <v>12.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15547,14 +15557,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45593</v>
+        <v>44916</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15566,8 +15576,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15604,14 +15619,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15623,13 +15638,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15666,14 +15676,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15687,11 +15697,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15728,14 +15738,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44956</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15747,13 +15757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15790,14 +15795,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45106</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15815,7 +15820,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15852,14 +15857,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45797</v>
+        <v>45518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15872,7 +15877,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15909,14 +15914,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45533.9425</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15928,13 +15933,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15971,14 +15971,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45776</v>
+        <v>44939</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>44468.62</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16049,11 +16049,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16090,14 +16090,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16109,13 +16109,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>44817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16171,8 +16166,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 65216-2021</t>
+          <t>A 41623-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44515</v>
+        <v>45560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,25 +985,20 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1015,15 +1010,108 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skuggmalmätare
+Brunflammig fältmätare
+Glimmalmätare
+Ligusterfly</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65216-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -1031,119 +1119,31 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41623-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skuggmalmätare
-Brunflammig fältmätare
-Glimmalmätare
-Ligusterfly</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,14 +1239,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49300-2025</t>
+          <t>A 62105-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45936</v>
+        <v>44920</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,16 +1258,11 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1276,330 +1271,335 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 53729-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Aspfjädermossa
+Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 49157-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 49300-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Ullticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 62105-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53729-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Aspfjädermossa
-Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13233-2023</t>
+          <t>A 56179-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45002.7306712963</v>
+        <v>45623</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1636,129 +1636,129 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 13233-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45002.7306712963</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Tunnvingemätare</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 56179-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,14 +2516,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32309-2022</t>
+          <t>A 18080-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44781.64625</v>
+        <v>44302</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2573,14 +2573,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44435</v>
+        <v>44790</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44391</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 32309-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44412</v>
+        <v>44781.64625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 50552-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44866.62049768519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22869-2021</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44328</v>
+        <v>44391</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2820,13 +2820,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2863,14 +2858,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25773-2022</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44733.46353009259</v>
+        <v>44435</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2878,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2920,14 +2915,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38276-2022</t>
+          <t>A 44282-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44812</v>
+        <v>44435.33862268519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2935,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2977,14 +2972,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35976-2022</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44690</v>
+        <v>44412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2996,13 +2991,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3039,14 +3029,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18080-2021</t>
+          <t>A 41453-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44302</v>
+        <v>44424</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3058,8 +3048,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3096,14 +3091,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50552-2022</t>
+          <t>A 14153-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44866.62049768519</v>
+        <v>44278</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3116,7 +3111,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3153,14 +3148,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44282-2021</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44435.33862268519</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3168,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3205,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41453-2021</t>
+          <t>A 15329-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44424</v>
+        <v>44284</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3229,13 +3224,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3272,14 +3262,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 38277-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44790</v>
+        <v>44812</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3292,7 +3282,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3319,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>45574</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3348,8 +3338,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3386,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14153-2021</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44278</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3406,7 +3401,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3443,14 +3438,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38277-2022</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44812</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3463,7 +3458,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3500,14 +3495,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15329-2021</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44284</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3520,7 +3515,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3557,14 +3552,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45895</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,13 +3571,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>11.9</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3619,14 +3609,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45124</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,8 +3628,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3671,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45895</v>
+        <v>45124</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3696,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3738,14 +3733,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 22869-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45649</v>
+        <v>44328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3763,7 +3758,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3800,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45897</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3819,13 +3814,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>16.6</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3862,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44607</v>
+        <v>44917</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3883,11 +3873,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3924,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45897</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3949,7 +3939,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3986,14 +3976,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45897</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4011,7 +4001,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4048,14 +4038,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45177</v>
+        <v>45531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4067,8 +4057,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>21.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4105,14 +4100,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 25773-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45089</v>
+        <v>44733.46353009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,13 +4119,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4167,14 +4157,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4187,7 +4177,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4224,14 +4214,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45614</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4244,7 +4234,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4281,14 +4271,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 38276-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45832</v>
+        <v>44812</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4301,7 +4291,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4338,14 +4328,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 35976-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45897</v>
+        <v>44690</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4363,7 +4353,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4400,14 +4390,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4420,7 +4410,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45897</v>
+        <v>45448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4476,13 +4466,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4519,14 +4504,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45825</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4539,7 +4524,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4576,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45897</v>
+        <v>45390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4601,7 +4586,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>17.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4638,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4657,8 +4642,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4695,14 +4685,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45103</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4716,11 +4706,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4757,14 +4747,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45103</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4778,11 +4768,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4819,14 +4809,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4839,7 +4829,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4876,14 +4866,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45155</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4895,13 +4885,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4938,14 +4923,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45898</v>
+        <v>45287</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4957,13 +4942,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5000,14 +4980,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>44524</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5020,7 +5000,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5057,14 +5037,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45265</v>
+        <v>44917</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5076,8 +5056,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5114,14 +5099,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44503</v>
+        <v>44468.62</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5139,7 +5124,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5176,14 +5161,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45578</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5201,7 +5186,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5238,14 +5223,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>44284</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5257,13 +5242,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>10.8</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5300,14 +5280,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45583</v>
+        <v>45578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5305,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5342,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5383,11 +5363,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5404,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45574</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,8 +5423,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5466,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5486,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5523,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45898</v>
+        <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5548,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>18.1</v>
+        <v>6.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5600,14 +5585,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44503</v>
+        <v>45575</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5625,7 +5610,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5647,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44694</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5687,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5724,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>44939</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5744,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5781,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44734</v>
+        <v>45614</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5800,13 +5785,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5843,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45903</v>
+        <v>45776</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5862,13 +5842,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>10.3</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5905,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45583</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5926,11 +5901,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5967,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45583</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5988,11 +5963,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>24</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6029,14 +6004,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45736</v>
+        <v>45583</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6048,8 +6023,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>8.9</v>
+        <v>3.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6086,14 +6066,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>45583</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6105,8 +6085,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>16.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6143,14 +6128,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45583</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6162,8 +6147,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6200,14 +6190,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45531</v>
+        <v>45533.9425</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6219,13 +6209,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>21.8</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6262,14 +6247,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6281,13 +6266,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6324,14 +6304,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>44903</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6344,7 +6324,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6381,14 +6361,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45103</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,13 +6380,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>10.4</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6443,14 +6418,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44524</v>
+        <v>45089</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6462,8 +6437,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6500,14 +6480,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6519,13 +6499,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6562,14 +6537,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6557,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6619,14 +6594,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45124</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6640,11 +6615,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6681,14 +6656,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45593</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6700,8 +6675,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6738,14 +6718,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6757,8 +6737,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6795,14 +6780,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45574</v>
+        <v>45085</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6814,13 +6799,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6837,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45698</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,8 +6856,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6914,14 +6899,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6933,8 +6918,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6971,14 +6961,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6992,11 +6982,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.8</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7033,14 +7023,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>44690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7058,7 +7048,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7095,14 +7085,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45897</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7116,11 +7106,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7157,14 +7147,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45581</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7176,13 +7166,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7219,14 +7204,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44956</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7244,7 +7229,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7281,14 +7266,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7302,11 +7287,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7343,14 +7328,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45797</v>
+        <v>45827</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7362,8 +7347,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7400,14 +7390,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45827</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7419,8 +7409,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7457,14 +7452,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7476,8 +7471,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7514,14 +7514,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45338</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7533,13 +7533,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7576,14 +7571,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45155</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7595,8 +7590,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7633,14 +7633,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7654,11 +7654,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45448</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7714,8 +7714,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7752,14 +7757,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45776</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7771,8 +7776,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7809,14 +7819,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45338</v>
+        <v>45217</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7829,7 +7839,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7866,14 +7876,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7886,7 +7896,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7923,14 +7933,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45925</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7942,13 +7952,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7985,14 +7990,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45575</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,13 +8009,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8047,14 +8047,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45649</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8066,8 +8066,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8104,14 +8109,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8125,11 +8130,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8166,14 +8171,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>44701</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8187,7 +8192,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -8228,14 +8233,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45608</v>
+        <v>45103</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8253,7 +8258,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8290,14 +8295,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8309,8 +8314,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8347,14 +8357,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45107</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8366,13 +8376,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8409,14 +8414,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8428,8 +8433,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8466,14 +8476,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45035</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8486,7 +8496,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8523,14 +8533,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8544,11 +8554,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8585,14 +8595,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8606,11 +8616,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.3</v>
+        <v>12.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8647,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8666,13 +8676,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8709,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45145</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8728,13 +8733,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>44916</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8792,11 +8792,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8833,14 +8833,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45145</v>
+        <v>44694</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8852,8 +8852,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8890,14 +8895,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45901</v>
+        <v>45124</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8920,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8952,14 +8957,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45030</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8973,11 +8978,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9014,14 +9019,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9033,13 +9038,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         <v>44720</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9138,14 +9138,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9157,13 +9157,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9200,14 +9195,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45827</v>
+        <v>45614</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9219,13 +9214,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9262,14 +9252,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45614</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9281,13 +9271,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9324,14 +9309,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45827</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9349,7 +9334,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>11.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9386,14 +9371,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9405,8 +9390,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9443,14 +9433,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9462,8 +9452,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9500,14 +9495,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>44734</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9521,11 +9516,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9562,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,13 +9576,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9624,14 +9614,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9649,7 +9639,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9686,14 +9676,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9706,7 +9696,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9743,14 +9733,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44482</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9762,13 +9752,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>17.8</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9805,14 +9790,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9824,13 +9809,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9867,14 +9847,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45155</v>
+        <v>44790</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9887,7 +9867,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9924,14 +9904,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45155</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9944,7 +9924,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9981,14 +9961,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45934</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10002,11 +9982,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10043,14 +10023,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45934</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10062,13 +10042,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>8.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10105,14 +10080,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10124,13 +10099,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10167,14 +10137,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45581</v>
+        <v>44482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10186,8 +10156,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>17.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10224,14 +10199,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10243,13 +10218,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10286,14 +10256,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45035</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10306,7 +10276,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10343,14 +10313,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>44817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10362,8 +10332,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10400,14 +10375,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10420,7 +10395,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>9.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10457,14 +10432,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10478,11 +10453,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10519,14 +10494,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45934</v>
+        <v>44938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10544,7 +10519,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.2</v>
+        <v>14.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10581,14 +10556,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>44607</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10606,7 +10581,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>12.8</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10643,14 +10618,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10664,11 +10639,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10705,14 +10680,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>44503</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10726,11 +10701,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10767,14 +10742,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45934</v>
+        <v>45177</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,13 +10761,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10829,14 +10799,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45736</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10848,13 +10818,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>8.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10891,14 +10856,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10912,11 +10877,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>12.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10953,14 +10918,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10972,13 +10937,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11015,14 +10975,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>44369</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11036,11 +10996,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11077,14 +11037,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45526</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11096,13 +11056,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11139,14 +11094,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45265</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11158,13 +11113,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11201,14 +11151,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11220,8 +11170,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11258,14 +11213,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11277,13 +11232,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11320,14 +11270,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45832</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11339,13 +11289,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11382,14 +11327,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45583</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11403,11 +11348,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11444,14 +11389,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11469,7 +11414,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11506,14 +11451,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45085</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11525,8 +11470,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>9.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11563,14 +11513,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11583,7 +11533,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11620,14 +11570,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45868</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,8 +11589,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11677,14 +11632,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45611</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11698,11 +11653,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11739,14 +11694,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44369</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11758,13 +11713,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11801,14 +11751,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45769</v>
+        <v>45825</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11820,13 +11770,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11863,14 +11808,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45895</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11882,8 +11827,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>11.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11920,14 +11870,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45895</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11941,11 +11891,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11982,14 +11932,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45614</v>
+        <v>45897</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12001,8 +11951,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12039,14 +11994,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45897</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12058,8 +12013,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.3</v>
+        <v>6.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12096,14 +12056,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45124</v>
+        <v>45897</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12121,7 +12081,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12158,14 +12118,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45898</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,8 +12137,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12215,14 +12180,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45835</v>
+        <v>45897</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12236,11 +12201,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.1</v>
+        <v>16.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12277,14 +12242,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45897</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,8 +12261,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>10.8</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12334,14 +12304,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45578</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12353,8 +12323,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12391,14 +12366,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45638</v>
+        <v>45898</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,8 +12385,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.4</v>
+        <v>18.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12448,14 +12428,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45897</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12473,7 +12453,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12510,14 +12490,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,13 +12509,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12572,14 +12547,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45103</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,8 +12566,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12629,14 +12609,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44917</v>
+        <v>45903</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12654,7 +12634,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>10.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12691,14 +12671,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>45578</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12710,8 +12690,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12748,14 +12733,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12769,11 +12754,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12810,14 +12795,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44284</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12830,7 +12815,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12867,14 +12852,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45975</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12886,13 +12871,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12929,14 +12909,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45583</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12954,7 +12934,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12991,14 +12971,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>45897</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13016,7 +12996,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13053,14 +13033,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45638</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13072,13 +13052,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13115,14 +13090,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>44503</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13134,8 +13109,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13172,14 +13152,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45611</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13191,13 +13171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>8.6</v>
+        <v>4.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13234,14 +13209,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45581</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13254,7 +13229,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13291,14 +13266,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44564</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13310,13 +13285,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13353,14 +13323,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45578</v>
+        <v>45925</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13378,7 +13348,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13415,14 +13385,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44790</v>
+        <v>45901</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13434,8 +13404,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13472,14 +13447,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13491,8 +13466,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>30.3</v>
+        <v>10.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13529,14 +13509,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13549,7 +13529,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13586,14 +13566,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45217</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13606,7 +13586,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13643,14 +13623,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13662,13 +13642,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13705,14 +13680,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45574</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13724,13 +13699,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>11.4</v>
+        <v>6.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13767,14 +13737,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13784,6 +13754,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -13824,14 +13799,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45934</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13843,8 +13818,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13881,14 +13861,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45934</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13906,7 +13886,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13943,14 +13923,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45614</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,8 +13942,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14000,14 +13985,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44917</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,11 +14006,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14062,14 +14047,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45934</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14083,11 +14068,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14124,14 +14109,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14145,11 +14130,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14186,14 +14171,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14205,8 +14190,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14243,14 +14233,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14262,8 +14252,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14300,14 +14295,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45287</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14320,7 +14315,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14357,14 +14352,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45934</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14376,8 +14371,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14414,14 +14414,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14433,8 +14433,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14471,14 +14476,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45390</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14492,11 +14497,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>17.8</v>
+        <v>3.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14533,14 +14538,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14552,8 +14557,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14590,14 +14600,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45526</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14609,8 +14619,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14647,14 +14662,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14667,7 +14682,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14704,14 +14719,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14724,7 +14739,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14761,14 +14776,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45698</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14780,13 +14795,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14823,14 +14833,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44690</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14844,11 +14854,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14885,14 +14895,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44903</v>
+        <v>45593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14905,7 +14915,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14942,14 +14952,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45578</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14967,7 +14977,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15004,14 +15014,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45578</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15029,7 +15039,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.7</v>
+        <v>10.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15066,14 +15076,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15091,7 +15101,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15128,14 +15138,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45124</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15147,13 +15157,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15190,14 +15195,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45835</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,8 +15214,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15247,14 +15257,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44938</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,13 +15276,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>14.7</v>
+        <v>10.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15309,14 +15314,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44701</v>
+        <v>44956</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15334,7 +15339,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15371,14 +15376,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44690</v>
+        <v>45106</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15396,7 +15401,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15433,14 +15438,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15458,7 +15463,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15495,14 +15500,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15514,13 +15519,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>12.8</v>
+        <v>1.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15557,14 +15557,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44916</v>
+        <v>45975</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15619,14 +15619,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15638,8 +15638,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15676,14 +15681,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45030</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15697,11 +15702,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15738,14 +15743,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15758,7 +15763,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>30.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15795,14 +15800,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15814,13 +15819,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15857,14 +15857,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45518</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15914,14 +15914,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45533.9425</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15933,8 +15933,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15971,14 +15976,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44939</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15991,7 +15996,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16033,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44468.62</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16053,7 +16058,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16090,14 +16095,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16110,7 +16115,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44817</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16166,13 +16171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41623-2024</t>
+          <t>A 65216-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45560</v>
+        <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,20 +985,25 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1010,15 +1015,103 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tallriska
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41623-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skuggmalmätare
 Brunflammig fältmätare
@@ -1026,124 +1119,31 @@
 Ligusterfly</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65216-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tallriska
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,14 +1239,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 62105-2022</t>
+          <t>A 49300-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44920</v>
+        <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,11 +1258,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1283,323 +1288,318 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
         <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rynkskinn
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 49157-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 62105-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 53729-2024</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45614</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>14</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Smal svampklubba</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 49300-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 56179-2024</t>
+          <t>A 13233-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45623</v>
+        <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,20 +1612,20 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1636,129 +1636,129 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tunnvingemätare</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 56179-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 13233-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45002.7306712963</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tunnvingemätare</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,14 +2516,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18080-2021</t>
+          <t>A 32309-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44302</v>
+        <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2573,14 +2573,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44790</v>
+        <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32309-2022</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44781.64625</v>
+        <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 50552-2022</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44866.62049768519</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 22869-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44391</v>
+        <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2820,8 +2820,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2858,14 +2863,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 25773-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44435</v>
+        <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2878,7 +2883,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2915,14 +2920,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44282-2021</t>
+          <t>A 38276-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44435.33862268519</v>
+        <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2935,7 +2940,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2972,14 +2977,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 35976-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44412</v>
+        <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2991,8 +2996,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3029,14 +3039,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41453-2021</t>
+          <t>A 18080-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44424</v>
+        <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3048,13 +3058,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3091,14 +3096,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14153-2021</t>
+          <t>A 50552-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44278</v>
+        <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3111,7 +3116,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3148,14 +3153,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 44282-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,7 +3173,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3205,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15329-2021</t>
+          <t>A 41453-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44284</v>
+        <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3224,8 +3229,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3262,14 +3272,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38277-2022</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44812</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3282,7 +3292,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3319,14 +3329,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45574</v>
+        <v>44790</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3338,13 +3348,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3381,14 +3386,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 14153-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,7 +3406,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3438,14 +3443,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 38277-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3458,7 +3463,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3495,14 +3500,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 15329-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3515,7 +3520,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3552,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3571,8 +3576,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3609,14 +3619,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45124</v>
+        <v>45089</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3630,11 +3640,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3671,14 +3681,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45124</v>
+        <v>45614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3690,13 +3700,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22869-2021</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44328</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,13 +3757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3852,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44917</v>
+        <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3933,13 +3933,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3976,14 +3971,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3995,13 +3990,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4038,14 +4028,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45531</v>
+        <v>45583</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4063,7 +4053,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>21.8</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4100,14 +4090,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 25773-2022</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44733.46353009259</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4120,7 +4110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4157,14 +4147,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4177,7 +4167,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4214,14 +4204,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4233,8 +4223,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4271,14 +4266,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38276-2022</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44812</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4291,7 +4286,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4328,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35976-2022</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44690</v>
+        <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4353,7 +4348,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4390,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4410,7 +4405,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4447,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45448</v>
+        <v>45736</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4467,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>8.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4504,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45531</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4523,8 +4518,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>21.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45390</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4580,13 +4580,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>17.8</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4623,14 +4618,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4648,7 +4643,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4685,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>44524</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4704,13 +4699,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4747,14 +4737,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>44956</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,11 +4758,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4809,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45106</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4828,8 +4818,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45155</v>
+        <v>45797</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4886,7 +4881,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4923,14 +4918,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45287</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4943,7 +4938,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4980,14 +4975,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44524</v>
+        <v>45832</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44917</v>
+        <v>45124</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5062,7 +5057,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44468.62</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5116,11 +5111,6 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -5161,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45574</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5186,7 +5176,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5223,14 +5213,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44284</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5242,8 +5232,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5280,14 +5275,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45578</v>
+        <v>45776</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5299,13 +5294,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5342,14 +5332,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5361,13 +5351,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5404,14 +5389,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45574</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5423,13 +5408,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>11.4</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5466,14 +5446,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45581</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5485,8 +5465,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5523,14 +5508,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44564</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5544,11 +5529,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5585,14 +5570,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45575</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5595,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5647,14 +5632,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5666,13 +5651,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5689,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44939</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5709,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5746,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45614</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,8 +5765,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5808,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45776</v>
+        <v>45155</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5828,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5865,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5901,11 +5886,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>10.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5942,14 +5927,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5967,7 +5952,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6004,14 +5989,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45583</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6025,11 +6010,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6066,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45583</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6087,11 +6072,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>16.8</v>
+        <v>8.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6128,14 +6113,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45583</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6149,11 +6134,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>24</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6190,14 +6175,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6209,8 +6194,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6247,14 +6237,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45448</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6267,7 +6257,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6304,14 +6294,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44903</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6323,8 +6313,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6361,14 +6356,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6380,8 +6375,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45089</v>
+        <v>45338</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6437,13 +6437,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6480,14 +6475,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6497,6 +6492,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -6537,14 +6537,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6556,8 +6556,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6594,14 +6599,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45827</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6615,11 +6620,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6656,14 +6661,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6677,11 +6682,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6718,14 +6723,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6737,13 +6742,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6780,14 +6780,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45085</v>
+        <v>45608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6799,8 +6799,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6837,14 +6842,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6862,7 +6867,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6899,14 +6904,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6929,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6986,7 +6991,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7023,14 +7028,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44690</v>
+        <v>45895</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7048,7 +7053,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>11.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7085,14 +7090,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7104,13 +7109,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7147,14 +7147,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45581</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7166,8 +7166,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7204,14 +7209,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45895</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7229,7 +7234,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7273,7 +7278,7 @@
         <v>45107</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7328,14 +7333,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45827</v>
+        <v>45897</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7353,7 +7358,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>16.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7390,14 +7395,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45827</v>
+        <v>45897</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7415,7 +7420,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7452,14 +7457,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45897</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7477,7 +7482,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7514,14 +7519,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45338</v>
+        <v>45897</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7533,8 +7538,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7571,14 +7581,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45897</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7592,11 +7602,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7633,14 +7643,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45825</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7652,13 +7662,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7695,14 +7700,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45897</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7716,7 +7721,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -7757,14 +7762,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7778,11 +7783,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7819,14 +7824,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45217</v>
+        <v>45145</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7839,7 +7844,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7876,14 +7881,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7896,7 +7901,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7933,14 +7938,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7953,7 +7958,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7990,14 +7995,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8009,8 +8014,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8047,14 +8057,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45649</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8068,7 +8078,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -8109,14 +8119,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>44720</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8130,11 +8140,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8171,14 +8181,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44701</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8196,7 +8206,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8233,14 +8243,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45103</v>
+        <v>45898</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8268,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8295,14 +8305,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45769</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8314,13 +8324,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8357,14 +8362,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45898</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8376,8 +8381,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>9.699999999999999</v>
+        <v>18.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8414,14 +8424,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>44482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8435,11 +8445,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.3</v>
+        <v>17.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8476,14 +8486,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45035</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8495,8 +8505,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8533,14 +8548,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45608</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8554,11 +8569,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8595,14 +8610,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45155</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8614,13 +8629,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>12.8</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8667,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45903</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8676,8 +8686,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>10.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8714,14 +8729,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45145</v>
+        <v>45581</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8734,7 +8749,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8771,14 +8786,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44916</v>
+        <v>45035</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8790,13 +8805,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8833,14 +8843,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44694</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8852,13 +8862,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8895,14 +8900,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45124</v>
+        <v>45868</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8914,13 +8919,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8957,14 +8957,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45030</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9019,14 +9019,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9076,14 +9076,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44720</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,13 +9095,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9138,14 +9133,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9157,8 +9152,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9195,14 +9195,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45614</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45614</v>
+        <v>45085</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9309,14 +9309,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45897</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>11.2</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9371,14 +9371,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9392,11 +9392,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9433,14 +9433,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>44369</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9454,11 +9454,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9495,14 +9495,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44734</v>
+        <v>45769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9557,14 +9557,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9614,14 +9614,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45614</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9633,13 +9633,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9676,14 +9671,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45868</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9696,7 +9691,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9733,14 +9728,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45124</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,8 +9747,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9790,14 +9790,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9847,14 +9847,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44790</v>
+        <v>45925</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9866,8 +9866,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9904,14 +9909,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45155</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9924,7 +9929,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9961,14 +9966,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9980,13 +9985,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10023,14 +10023,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>45901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10042,8 +10042,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10080,14 +10085,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10100,7 +10105,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10137,14 +10142,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44482</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10156,13 +10161,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>17.8</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10199,14 +10199,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10256,14 +10256,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45934</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10275,8 +10275,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10313,14 +10318,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44817</v>
+        <v>45934</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10338,7 +10343,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10375,14 +10380,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10394,8 +10399,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10432,14 +10442,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10453,11 +10463,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10494,14 +10504,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44938</v>
+        <v>45934</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10519,7 +10529,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>14.7</v>
+        <v>7.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10556,14 +10566,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44607</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10577,11 +10587,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10618,14 +10628,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10639,11 +10649,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10680,14 +10690,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44503</v>
+        <v>45934</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10705,7 +10715,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10742,14 +10752,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45177</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10761,8 +10771,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10799,14 +10814,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45736</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10818,8 +10833,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10856,14 +10876,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10875,13 +10895,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10918,14 +10933,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45518</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10937,8 +10952,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10975,14 +10995,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44369</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10996,11 +11016,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11037,14 +11057,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45526</v>
+        <v>45638</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11057,7 +11077,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11094,14 +11114,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45265</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11113,8 +11133,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11151,14 +11176,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11170,13 +11195,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11213,14 +11233,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11232,8 +11252,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11270,14 +11295,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45832</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11289,8 +11314,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11327,14 +11357,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45583</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11352,7 +11382,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11389,14 +11419,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45578</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11408,13 +11438,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11451,14 +11476,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>44917</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11476,7 +11501,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11513,14 +11538,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11533,7 +11558,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11570,14 +11595,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11589,13 +11614,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>10.8</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11632,14 +11652,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45611</v>
+        <v>45835</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11653,11 +11673,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11694,14 +11714,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11711,6 +11731,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -11751,14 +11776,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45825</v>
+        <v>44284</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11771,7 +11796,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11808,14 +11833,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45895</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11827,13 +11852,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11870,14 +11890,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45895</v>
+        <v>45583</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11895,7 +11915,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11932,14 +11952,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45897</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11951,13 +11971,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11994,14 +12009,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45897</v>
+        <v>45611</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12019,7 +12034,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12056,14 +12071,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45897</v>
+        <v>45581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12075,13 +12090,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12118,14 +12128,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45898</v>
+        <v>44564</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12143,7 +12153,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12180,14 +12190,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45897</v>
+        <v>45578</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12205,7 +12215,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>16.6</v>
+        <v>4.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12242,14 +12252,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45897</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12267,7 +12277,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12304,14 +12314,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45578</v>
+        <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,13 +12333,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12366,14 +12371,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45898</v>
+        <v>45217</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12385,13 +12390,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>18.1</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45897</v>
+        <v>45975</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12490,14 +12490,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12509,8 +12509,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12547,14 +12552,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45103</v>
+        <v>45574</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12572,7 +12577,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>11.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12609,14 +12614,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45903</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12634,7 +12639,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>10.3</v>
+        <v>8.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12671,14 +12676,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45578</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12690,13 +12695,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12733,14 +12733,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44690</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12795,14 +12795,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45614</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>17</v>
+        <v>7.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12852,14 +12852,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>44917</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12871,8 +12871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12909,14 +12914,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12930,11 +12935,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12971,14 +12976,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45897</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12992,11 +12997,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13033,14 +13038,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45638</v>
+        <v>45287</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13053,7 +13058,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13090,14 +13095,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44503</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13109,13 +13114,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13152,14 +13152,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45390</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,8 +13171,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4.1</v>
+        <v>17.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13209,14 +13214,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13229,7 +13234,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13266,14 +13271,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45526</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13286,7 +13291,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13323,14 +13328,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45925</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,13 +13347,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>6.7</v>
+        <v>4.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13385,14 +13385,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45901</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13404,13 +13404,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13447,14 +13442,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45103</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13466,13 +13461,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>10.4</v>
+        <v>30.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13509,14 +13499,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13519,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13566,14 +13556,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>44690</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13585,8 +13575,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13623,14 +13618,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>44903</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13643,7 +13638,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13680,14 +13675,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45578</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13699,8 +13694,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13737,14 +13737,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45578</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13758,11 +13758,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13799,14 +13799,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45934</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45934</v>
+        <v>45124</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13923,14 +13923,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13942,13 +13942,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13985,14 +13980,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>44938</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14006,11 +14001,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>14.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14047,14 +14042,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45934</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14066,13 +14061,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14109,14 +14099,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14134,7 +14124,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14171,14 +14161,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,13 +14180,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14233,14 +14218,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,11 +14239,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14295,14 +14280,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>44701</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14314,8 +14299,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14352,14 +14342,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45934</v>
+        <v>44690</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14377,7 +14367,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14414,14 +14404,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14435,11 +14425,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14476,14 +14466,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14497,11 +14487,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.1</v>
+        <v>12.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14538,14 +14528,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>44916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14559,11 +14549,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14600,14 +14590,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14619,13 +14609,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14662,14 +14647,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45030</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14681,8 +14666,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14719,14 +14709,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14739,7 +14729,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14776,14 +14766,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45698</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14795,8 +14785,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>11.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14833,14 +14828,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>45518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14852,13 +14847,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14895,14 +14885,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45593</v>
+        <v>45533.9425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14915,7 +14905,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14952,14 +14942,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>44939</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14971,13 +14961,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15014,14 +14999,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>44468.62</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15039,7 +15024,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>10.8</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15076,14 +15061,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,13 +15080,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15138,14 +15118,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>44817</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,8 +15137,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15195,14 +15180,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45835</v>
+        <v>44607</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15216,11 +15201,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15257,14 +15242,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45177</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15277,7 +15262,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>10.8</v>
+        <v>4.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15314,14 +15299,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44956</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15333,13 +15318,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15376,14 +15356,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15401,7 +15381,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15438,14 +15418,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15463,7 +15443,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15500,14 +15480,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45797</v>
+        <v>45578</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15519,8 +15499,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15557,14 +15542,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45975</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15582,7 +15567,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15619,14 +15604,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>44694</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15644,7 +15629,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15681,14 +15666,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45583</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15706,7 +15691,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.5</v>
+        <v>16.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15743,14 +15728,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45583</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15762,8 +15747,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>30.3</v>
+        <v>24</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15800,14 +15790,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45103</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15819,8 +15809,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15857,14 +15852,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15876,8 +15871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15914,14 +15914,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15933,13 +15933,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15976,14 +15971,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45698</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15996,7 +15991,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16033,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16052,13 +16047,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16095,14 +16085,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16114,8 +16104,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16171,8 +16166,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,14 +2573,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44412</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>23</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3272,14 +3272,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3329,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44790</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3619,14 +3619,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45089</v>
+        <v>45614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,13 +3638,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3681,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45614</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3696,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3738,14 +3733,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>44503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3757,8 +3752,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>45583</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3814,8 +3814,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3852,14 +3857,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44503</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3871,13 +3876,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>45265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4028,14 +4028,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45583</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4047,13 +4047,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4090,14 +4085,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4110,7 +4105,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4147,14 +4142,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45089</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4166,8 +4161,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4385,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>45736</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>8.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45736</v>
+        <v>45593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45531</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4518,13 +4518,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>21.8</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4556,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45832</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4581,7 +4576,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4618,14 +4613,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4637,13 +4632,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4680,14 +4670,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44524</v>
+        <v>45698</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4700,7 +4690,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4737,14 +4727,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44956</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4756,13 +4746,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45106</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4824,7 +4809,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4861,14 +4846,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45797</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4880,8 +4865,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4918,14 +4908,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4938,7 +4928,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4975,14 +4965,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45832</v>
+        <v>45531</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4994,8 +4984,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>21.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5032,14 +5027,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45124</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5114,7 +5109,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5151,14 +5146,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45574</v>
+        <v>44524</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5170,13 +5165,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5213,14 +5203,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>44956</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5238,7 +5228,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5275,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45776</v>
+        <v>45106</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5294,8 +5284,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>11</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5332,14 +5327,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45797</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5352,7 +5347,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5389,14 +5384,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,8 +5403,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5446,14 +5446,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5467,11 +5467,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>10.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5508,14 +5508,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,11 +5529,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5570,14 +5570,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45124</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>9.6</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5632,14 +5632,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45895</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5651,8 +5651,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>11.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5689,14 +5694,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5709,7 +5714,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5746,14 +5751,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5765,13 +5770,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5808,14 +5808,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45155</v>
+        <v>45895</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5827,8 +5827,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5865,14 +5870,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45574</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5890,7 +5895,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.8</v>
+        <v>4.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5927,14 +5932,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45897</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5948,11 +5953,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>16.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5989,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6010,11 +6015,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6056,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45897</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6072,11 +6077,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45897</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6134,11 +6139,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6175,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45897</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6196,11 +6201,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6237,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45448</v>
+        <v>45825</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6257,7 +6262,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6294,14 +6299,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45897</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6319,7 +6324,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6356,14 +6361,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6377,11 +6382,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6418,14 +6423,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45338</v>
+        <v>45776</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6438,7 +6443,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6475,14 +6480,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45827</v>
+        <v>45898</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6500,7 +6505,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6537,14 +6542,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45898</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6558,11 +6563,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>18.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6599,14 +6604,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45827</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6620,11 +6625,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6661,14 +6666,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45575</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6682,11 +6687,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6723,14 +6728,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45903</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6742,8 +6747,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>10.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6780,14 +6790,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45608</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6799,13 +6809,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6842,14 +6847,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6861,13 +6866,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6966,14 +6966,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7028,14 +7028,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45895</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7049,11 +7049,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.9</v>
+        <v>8.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7090,14 +7090,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7109,8 +7109,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7147,14 +7152,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7172,7 +7177,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7209,14 +7214,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45895</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7228,13 +7233,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7271,14 +7271,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45107</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7292,11 +7292,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7333,14 +7333,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45897</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,13 +7352,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>16.6</v>
+        <v>5.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7395,14 +7390,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45897</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7416,11 +7411,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7457,14 +7452,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45897</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7476,13 +7471,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7519,14 +7509,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45897</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7540,11 +7530,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7581,14 +7571,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45897</v>
+        <v>45155</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7600,13 +7590,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7643,14 +7628,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7662,8 +7647,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7700,14 +7690,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45897</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7721,11 +7711,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7762,14 +7752,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45827</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7783,11 +7773,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7824,14 +7814,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45145</v>
+        <v>45897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7843,8 +7833,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7881,14 +7876,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,8 +7895,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7938,14 +7938,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7995,14 +7995,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,11 +8016,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>12.8</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8057,14 +8057,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8078,11 +8078,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8119,14 +8119,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44720</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,11 +8140,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8181,14 +8181,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45338</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8200,13 +8200,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8243,14 +8238,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45898</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8262,13 +8257,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8305,14 +8295,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8324,8 +8314,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8362,14 +8357,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45898</v>
+        <v>45575</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8382,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>18.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8424,14 +8419,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44482</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8443,13 +8438,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>17.8</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8486,14 +8476,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45608</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8507,11 +8497,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8548,14 +8538,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8567,13 +8557,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8610,14 +8595,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45155</v>
+        <v>45925</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8629,8 +8614,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8667,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45903</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8688,11 +8678,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10.3</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8729,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45581</v>
+        <v>45107</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8748,8 +8738,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8786,14 +8781,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45035</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8806,7 +8801,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8843,14 +8838,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8863,7 +8858,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8900,14 +8895,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45868</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8920,7 +8915,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8957,14 +8952,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8978,11 +8973,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>12.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9019,14 +9014,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9039,7 +9034,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9076,14 +9071,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9095,8 +9090,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9133,14 +9133,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45901</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9154,11 +9154,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9195,14 +9195,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45085</v>
+        <v>45145</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9309,14 +9309,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45897</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9328,13 +9328,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9371,14 +9366,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>44720</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9396,7 +9391,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9433,14 +9428,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44369</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9458,7 +9453,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9495,14 +9490,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45769</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9514,13 +9509,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9557,14 +9547,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9576,8 +9566,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9614,14 +9609,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45614</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9633,8 +9628,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9671,14 +9671,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9690,8 +9690,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9728,14 +9733,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45124</v>
+        <v>45934</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9753,7 +9758,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9790,14 +9795,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9810,7 +9815,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9847,14 +9852,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45925</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9868,11 +9873,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9909,14 +9914,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9928,8 +9933,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9966,14 +9976,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9985,8 +9995,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10023,14 +10038,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45901</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10044,11 +10059,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10085,14 +10100,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10104,8 +10119,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10142,14 +10162,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45934</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10161,8 +10181,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10199,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10218,8 +10243,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10256,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45934</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10277,11 +10307,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10318,14 +10348,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45934</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10339,11 +10369,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10380,14 +10410,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10405,7 +10435,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10442,14 +10472,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10497,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10504,14 +10534,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45934</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10523,13 +10553,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10566,14 +10591,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10587,11 +10612,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>17.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10628,14 +10653,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10653,7 +10678,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10690,14 +10715,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45934</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10709,13 +10734,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10752,14 +10772,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45155</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10769,11 +10789,6 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -10814,14 +10829,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10831,11 +10846,6 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -10876,14 +10886,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10895,8 +10905,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10933,14 +10948,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10954,11 +10969,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.1</v>
+        <v>10.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10995,14 +11010,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11016,11 +11031,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11057,14 +11072,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45638</v>
+        <v>45581</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11077,7 +11092,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11114,14 +11129,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,13 +11148,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11176,14 +11186,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11195,8 +11205,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11233,14 +11248,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45035</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11252,13 +11267,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11295,14 +11305,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11314,13 +11324,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11357,14 +11362,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45835</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11378,11 +11383,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11419,14 +11424,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11439,7 +11444,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>10.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11476,14 +11481,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44917</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11501,7 +11506,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11538,14 +11543,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>45085</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11558,7 +11563,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11595,14 +11600,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>44369</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11614,8 +11619,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11652,14 +11662,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45835</v>
+        <v>45975</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11673,11 +11683,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11714,14 +11724,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>45769</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11735,11 +11745,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11776,14 +11786,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44284</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11796,7 +11806,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11833,14 +11843,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11853,7 +11863,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11890,14 +11900,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45583</v>
+        <v>45614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11909,13 +11919,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11952,14 +11957,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11972,7 +11977,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12009,14 +12014,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45611</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12034,7 +12039,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12071,14 +12076,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45581</v>
+        <v>45124</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12090,8 +12095,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12128,14 +12138,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44564</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12153,7 +12163,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12190,14 +12200,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45578</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,13 +12219,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12252,14 +12257,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45638</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12271,13 +12276,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44790</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12333,8 +12333,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12371,14 +12376,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45217</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12391,7 +12396,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>30.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12428,14 +12433,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45975</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12447,13 +12452,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12490,14 +12490,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12509,13 +12509,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12552,14 +12547,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45574</v>
+        <v>44917</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12577,7 +12572,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>11.4</v>
+        <v>2.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12614,14 +12609,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12633,13 +12628,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12676,14 +12666,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12695,8 +12685,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12733,14 +12728,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>44284</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12752,13 +12747,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12795,14 +12785,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45614</v>
+        <v>45583</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12814,8 +12804,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12852,14 +12847,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44917</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12871,13 +12866,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12914,14 +12904,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45611</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12935,11 +12925,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12976,14 +12966,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45581</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12995,13 +12985,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13038,14 +13023,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45287</v>
+        <v>44564</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13057,8 +13042,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13095,14 +13085,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45578</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,8 +13104,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13152,14 +13147,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45390</v>
+        <v>44790</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13171,13 +13166,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>17.8</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13214,14 +13204,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45217</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13234,7 +13224,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13271,14 +13261,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45526</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13290,8 +13280,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13328,14 +13323,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45574</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13347,8 +13342,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>4.6</v>
+        <v>11.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13385,14 +13385,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13442,14 +13442,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45614</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>30.3</v>
+        <v>7.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13499,14 +13499,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>44917</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13518,8 +13518,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13556,14 +13561,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44690</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13577,11 +13582,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13618,14 +13623,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44903</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13637,8 +13642,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13675,14 +13685,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45578</v>
+        <v>45287</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13694,13 +13704,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13737,14 +13742,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45578</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13756,13 +13761,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13799,14 +13799,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45390</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>17.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45124</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13880,13 +13880,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13923,14 +13918,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45526</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13943,7 +13938,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13980,14 +13975,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44938</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13999,13 +13994,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>14.7</v>
+        <v>4.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14042,14 +14032,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14062,7 +14052,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14099,14 +14089,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>44690</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14161,14 +14151,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>44903</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14181,7 +14171,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14218,14 +14208,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45578</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14243,7 +14233,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14280,14 +14270,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44701</v>
+        <v>45578</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14305,7 +14295,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14342,14 +14332,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44690</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14367,7 +14357,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14404,14 +14394,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>45124</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14429,7 +14419,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14466,14 +14456,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14485,13 +14475,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>12.8</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14528,14 +14513,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44916</v>
+        <v>44938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14553,7 +14538,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>14.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14590,14 +14575,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>44701</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14609,8 +14594,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14647,14 +14637,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45030</v>
+        <v>44690</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14668,11 +14658,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14709,14 +14699,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14726,6 +14716,11 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -14766,14 +14761,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14791,7 +14786,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14828,14 +14823,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45518</v>
+        <v>44916</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14847,8 +14842,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14885,14 +14885,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14942,14 +14942,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44939</v>
+        <v>45030</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14961,8 +14961,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14999,14 +15004,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44468.62</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15018,13 +15023,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15061,14 +15061,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15080,8 +15080,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>8.4</v>
+        <v>11.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15118,14 +15123,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44817</v>
+        <v>45518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15137,13 +15142,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15180,14 +15180,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44607</v>
+        <v>45533.9425</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15197,11 +15197,6 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -15242,14 +15237,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45177</v>
+        <v>44939</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15262,7 +15257,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15299,14 +15294,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>44468.62</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15318,8 +15313,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15356,14 +15356,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45103</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15375,13 +15375,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15418,14 +15413,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45103</v>
+        <v>44817</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15443,7 +15438,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15480,14 +15475,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45578</v>
+        <v>44607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15501,11 +15496,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15542,14 +15537,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45177</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15561,13 +15556,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15604,14 +15594,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44694</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15623,13 +15613,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15666,14 +15651,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45583</v>
+        <v>45103</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15691,7 +15676,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>16.8</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15728,14 +15713,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45583</v>
+        <v>45103</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15753,7 +15738,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>24</v>
+        <v>3.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15790,14 +15775,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45103</v>
+        <v>45578</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15815,7 +15800,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>10.4</v>
+        <v>5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15852,14 +15837,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15877,7 +15862,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15914,14 +15899,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45593</v>
+        <v>44694</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15933,8 +15918,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15971,14 +15961,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45698</v>
+        <v>45583</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15990,8 +15980,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>16.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16023,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45583</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16047,8 +16042,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>24</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16085,14 +16085,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45103</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 65215-2021</t>
+          <t>A 43083-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44515</v>
+        <v>45909.6125925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -692,16 +692,11 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>13.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -731,6 +726,106 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Talltita
+Tretåig hackspett
+Dropptaggsvamp
+Rödgul trumpetsvamp
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 65215-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -741,130 +836,35 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 43083-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45909.6125925926</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Talltita
-Tretåig hackspett
-Dropptaggsvamp
-Rödgul trumpetsvamp
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1592,14 +1592,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13233-2023</t>
+          <t>A 57978-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45002.7306712963</v>
+        <v>45982.39730324074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,11 +1611,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1636,308 +1641,303 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Nattviol</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 13233-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45002.7306712963</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Tunnvingemätare</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 56179-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45623</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>0.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 24791-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45460</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>3.9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 57978-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45982.39730324074</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44435</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44412</v>
+        <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>23</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44391</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3676,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45089</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,8 +3695,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44503</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,13 +3757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45583</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3814,13 +3814,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3857,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3876,8 +3871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>45265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4028,14 +4028,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>44503</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4047,8 +4047,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4085,14 +4090,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4104,8 +4109,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4142,14 +4152,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45089</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4161,13 +4171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4204,14 +4209,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44503</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4223,13 +4228,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44734</v>
+        <v>45832</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4342,13 +4342,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4380,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45736</v>
+        <v>44503</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4404,8 +4399,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>8.9</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45593</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>44734</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4518,8 +4518,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4556,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45832</v>
+        <v>45593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4576,7 +4581,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4613,14 +4618,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>45698</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4633,7 +4638,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4670,14 +4675,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45698</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4690,7 +4695,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4727,14 +4732,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4746,8 +4751,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>10.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4784,14 +4794,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.8</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4871,7 +4881,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4908,14 +4918,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>45736</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4928,7 +4938,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>8.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4965,14 +4975,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45531</v>
+        <v>45975</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4990,7 +5000,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>21.8</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5027,14 +5037,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5046,13 +5056,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>44956</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5108,8 +5113,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5146,14 +5156,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44524</v>
+        <v>45106</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5165,8 +5175,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5203,14 +5218,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44956</v>
+        <v>45797</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5222,13 +5237,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5265,14 +5275,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45106</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5290,7 +5300,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797</v>
+        <v>45531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5346,8 +5356,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>21.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5384,14 +5399,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5409,7 +5424,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5446,14 +5461,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5465,13 +5480,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>10.8</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5508,14 +5518,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45895</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5533,7 +5543,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>11.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5570,14 +5580,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45124</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,13 +5599,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5632,14 +5637,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45895</v>
+        <v>44524</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5651,13 +5656,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5694,14 +5694,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5713,8 +5713,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5751,14 +5756,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5770,8 +5775,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>16.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5808,14 +5818,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5833,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5870,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45574</v>
+        <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5895,7 +5905,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5932,14 +5942,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5967,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>16.6</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +6004,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6019,7 +6029,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.699999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6056,14 +6066,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45897</v>
+        <v>45825</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6075,13 +6085,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6118,14 +6123,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6205,7 +6210,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6247,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45825</v>
+        <v>45898</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6261,8 +6266,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>18.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6299,14 +6309,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45897</v>
+        <v>45124</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6324,7 +6334,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6361,14 +6371,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6386,7 +6396,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6423,14 +6433,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45776</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6442,8 +6452,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6480,14 +6495,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45898</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6499,13 +6514,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6542,14 +6552,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45898</v>
+        <v>45574</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6567,7 +6577,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>18.1</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6604,14 +6614,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45903</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6625,11 +6635,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>10.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6666,14 +6676,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>45776</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6685,13 +6695,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6728,14 +6733,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45903</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6747,13 +6752,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>10.3</v>
+        <v>17</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6809,8 +6809,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6847,14 +6852,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6866,8 +6871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6904,14 +6914,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6929,7 +6939,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6966,14 +6976,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6985,13 +6995,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7028,14 +7033,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7047,13 +7052,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7090,14 +7090,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7111,11 +7111,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7152,14 +7152,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7173,11 +7173,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7214,14 +7214,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7233,8 +7233,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>17</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7271,14 +7276,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7292,11 +7297,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7333,14 +7338,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7353,7 +7358,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7390,14 +7395,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7415,7 +7420,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7452,14 +7457,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7471,8 +7476,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7509,14 +7519,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7534,7 +7544,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7571,14 +7581,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45155</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7590,8 +7600,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7628,14 +7643,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45827</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7649,11 +7664,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7690,14 +7705,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7709,13 +7724,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7752,14 +7762,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45827</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7771,13 +7781,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7814,14 +7819,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45897</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7835,11 +7840,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7876,14 +7881,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45925</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7901,7 +7906,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7938,14 +7943,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45448</v>
+        <v>45827</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7957,8 +7962,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7995,14 +8005,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8020,7 +8030,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8057,14 +8067,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8076,13 +8086,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8119,14 +8124,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45827</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,11 +8145,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8181,14 +8186,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45338</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8206,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8238,14 +8243,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8263,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8295,14 +8300,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45448</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8314,13 +8319,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8357,14 +8357,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45575</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8378,11 +8378,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8419,14 +8419,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8438,8 +8438,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8476,14 +8481,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45608</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8497,11 +8502,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8538,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45338</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8595,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45925</v>
+        <v>45901</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8620,7 +8625,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8662,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8676,13 +8681,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45107</v>
+        <v>45575</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8740,11 +8740,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8781,14 +8781,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,8 +8800,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8838,14 +8843,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8858,7 +8863,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8895,14 +8900,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8920,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8952,14 +8957,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45608</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8973,11 +8978,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>12.8</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9014,14 +9019,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +9039,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9071,14 +9076,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45934</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9092,11 +9097,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9133,14 +9138,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45901</v>
+        <v>45934</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9158,7 +9163,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9195,14 +9200,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45107</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9214,8 +9219,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9252,14 +9262,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45145</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9271,8 +9281,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9309,14 +9324,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9328,8 +9343,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9366,14 +9386,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44720</v>
+        <v>45934</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9391,7 +9411,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9428,14 +9448,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9449,11 +9469,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9490,14 +9510,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9509,8 +9529,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9547,14 +9572,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9568,11 +9593,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9609,14 +9634,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45934</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9630,11 +9655,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9671,14 +9696,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45934</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9692,11 +9717,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9733,14 +9758,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45934</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9754,11 +9779,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9795,14 +9820,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9814,8 +9839,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9852,14 +9882,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9877,7 +9907,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9914,14 +9944,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9939,7 +9969,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9976,14 +10006,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45934</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9995,13 +10025,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10038,14 +10063,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10057,13 +10082,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10100,14 +10120,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10145,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10162,14 +10182,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45934</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10181,13 +10201,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10224,14 +10239,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10245,11 +10260,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>12.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10286,14 +10301,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10307,11 +10322,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10348,14 +10363,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45145</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10367,13 +10382,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10410,14 +10420,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10431,11 +10441,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10472,14 +10482,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>44720</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10493,11 +10503,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10534,14 +10544,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10553,8 +10563,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10591,14 +10606,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44482</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10610,13 +10625,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>17.8</v>
+        <v>4.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10653,14 +10663,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,13 +10682,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10715,14 +10720,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45835</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10734,8 +10739,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10772,14 +10782,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45155</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10791,8 +10801,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10829,14 +10844,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45868</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10848,8 +10863,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10886,14 +10906,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>44482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10907,11 +10927,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>17.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10948,14 +10968,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10967,13 +10987,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11010,14 +11025,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45155</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11029,13 +11044,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11079,7 +11089,7 @@
         <v>45581</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11129,14 +11139,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45035</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11149,7 +11159,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11186,14 +11196,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11205,13 +11215,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11248,14 +11253,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45035</v>
+        <v>45868</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11268,7 +11273,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11305,14 +11310,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11324,8 +11329,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11362,14 +11372,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45835</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11383,11 +11393,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11424,14 +11434,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11444,7 +11454,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11481,14 +11491,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11502,11 +11512,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11550,7 +11560,7 @@
         <v>45085</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11607,7 +11617,7 @@
         <v>44369</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11662,14 +11672,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45975</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11681,13 +11691,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>30.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11731,7 +11736,7 @@
         <v>45769</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11786,14 +11791,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11806,7 +11811,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11843,14 +11848,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11863,7 +11868,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11900,14 +11905,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45614</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11920,7 +11925,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11957,14 +11962,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45124</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11976,8 +11981,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12014,14 +12024,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12033,13 +12043,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12076,14 +12081,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45124</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,13 +12100,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12138,14 +12138,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12200,14 +12200,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>45638</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45638</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>44847.4584375</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12376,14 +12376,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>30.3</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12433,14 +12433,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>44917</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12452,8 +12452,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12490,14 +12495,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12510,7 +12515,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12547,14 +12552,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44917</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12568,11 +12573,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12609,14 +12614,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>44284</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12629,7 +12634,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12666,14 +12671,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>45583</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12687,11 +12692,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12728,14 +12733,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44284</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12747,8 +12752,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12785,14 +12795,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45583</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12804,13 +12814,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12847,14 +12852,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>45611</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12866,8 +12871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12904,14 +12914,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45611</v>
+        <v>45581</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12923,13 +12933,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>8.6</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12966,14 +12971,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45581</v>
+        <v>44564</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12985,8 +12990,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13023,14 +13033,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44564</v>
+        <v>45578</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13048,7 +13058,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13085,14 +13095,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45578</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13104,13 +13114,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13154,7 +13159,7 @@
         <v>44790</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13204,14 +13209,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45217</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13224,7 +13229,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13261,14 +13266,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45217</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13280,13 +13285,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13323,14 +13323,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45574</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>11.4</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13385,14 +13385,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45574</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13404,8 +13404,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>3.3</v>
+        <v>11.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13442,14 +13447,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45614</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13462,7 +13467,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13499,14 +13504,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44917</v>
+        <v>45614</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13516,11 +13521,6 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -13561,14 +13561,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>44917</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13623,14 +13623,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13685,14 +13685,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45287</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13704,8 +13704,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13742,14 +13747,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45287</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13762,7 +13767,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13799,14 +13804,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45390</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13818,13 +13823,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>17.8</v>
+        <v>6.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13861,14 +13861,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45390</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13880,8 +13880,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>5.4</v>
+        <v>17.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13918,14 +13923,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45526</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13938,7 +13943,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13975,14 +13980,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45526</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13995,7 +14000,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14032,14 +14037,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14052,7 +14057,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14089,14 +14094,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44690</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14108,13 +14113,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14151,14 +14151,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44903</v>
+        <v>44690</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14170,8 +14170,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14208,14 +14213,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45578</v>
+        <v>44903</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14227,13 +14232,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14270,14 +14270,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
         <v>45578</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14332,14 +14332,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45578</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14394,14 +14394,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45124</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14456,14 +14456,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>45124</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,8 +14475,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14513,14 +14518,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44938</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,13 +14537,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>14.7</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14575,14 +14575,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44701</v>
+        <v>44938</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>14.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14637,14 +14637,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44690</v>
+        <v>44701</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14699,14 +14699,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>44690</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14761,14 +14761,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>12.8</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14823,14 +14823,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44916</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14885,14 +14885,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>44916</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14904,8 +14904,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14942,14 +14947,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45030</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14961,13 +14966,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15004,14 +15004,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>45030</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15023,8 +15023,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15061,14 +15066,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15080,13 +15085,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>11.2</v>
+        <v>1.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15123,14 +15123,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45518</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15142,8 +15142,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>5.9</v>
+        <v>11.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15180,14 +15185,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15200,7 +15205,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15237,14 +15242,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44939</v>
+        <v>45533.9425</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15257,7 +15262,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15294,14 +15299,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44468.62</v>
+        <v>44939</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15313,13 +15318,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15356,14 +15356,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>44468.62</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15375,8 +15375,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15413,14 +15418,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44817</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15432,13 +15437,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15475,14 +15475,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44607</v>
+        <v>44817</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15496,11 +15496,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15537,14 +15537,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45177</v>
+        <v>44607</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,8 +15556,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15594,14 +15599,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45177</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15614,7 +15619,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15651,14 +15656,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45103</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,13 +15675,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15713,14 +15713,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15775,14 +15775,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45578</v>
+        <v>45103</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15837,14 +15837,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45578</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15899,14 +15899,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44694</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15961,14 +15961,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45583</v>
+        <v>44694</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>16.8</v>
+        <v>2.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16023,14 +16023,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>45583</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>24</v>
+        <v>16.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16085,14 +16085,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45103</v>
+        <v>45583</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>10.4</v>
+        <v>24</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45103</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 65216-2021</t>
+          <t>A 41623-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44515</v>
+        <v>45560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,25 +985,20 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1015,15 +1010,108 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skuggmalmätare
+Brunflammig fältmätare
+Glimmalmätare
+Ligusterfly</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 65216-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -1031,119 +1119,31 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41623-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skuggmalmätare
-Brunflammig fältmätare
-Glimmalmätare
-Ligusterfly</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,14 +1330,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49157-2023</t>
+          <t>A 62105-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45210</v>
+        <v>44920</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,16 +1350,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1384,222 +1384,222 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 53729-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Aspfjädermossa
+Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 49157-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Rödgul trumpetsvamp
 Skogshakmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 62105-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 53729-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Aspfjädermossa
-Smal svampklubba</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 57978-2025</t>
+          <t>A 24791-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45982.39730324074</v>
+        <v>45460</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,13 +1611,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1626,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1641,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1651,293 +1646,298 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 56179-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 57978-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45982.39730324074</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 13233-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45002.7306712963</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Tunnvingemätare</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 56179-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45623</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24791-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45460</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,14 +2573,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 36547-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44435</v>
+        <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36547-2021</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44412</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45649</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,13 +3576,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3619,14 +3614,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45614</v>
+        <v>44503</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,8 +3633,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45089</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3695,13 +3695,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3738,14 +3733,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3757,8 +3752,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>45934</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3814,8 +3814,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>8.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3852,14 +3857,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45934</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3877,7 +3882,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3919,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3933,8 +3938,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3971,14 +3981,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45265</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3990,8 +4000,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4028,14 +4043,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44503</v>
+        <v>45934</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4053,7 +4068,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4090,14 +4105,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45583</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4111,11 +4126,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4152,14 +4167,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4171,8 +4186,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4209,14 +4229,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4229,7 +4249,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4266,14 +4286,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45934</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4285,8 +4305,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4348,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45832</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4342,8 +4367,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4380,14 +4410,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44503</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4399,13 +4429,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,14 +4467,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4461,8 +4486,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4499,14 +4529,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44734</v>
+        <v>45390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4524,7 +4554,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>17.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4591,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45593</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4580,8 +4610,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4618,14 +4653,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45698</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4637,8 +4672,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4675,14 +4715,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,14 +4772,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45832</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4751,13 +4791,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>10.8</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4794,14 +4829,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45103</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4819,7 +4854,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>10.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4863,7 +4898,7 @@
         <v>45889.33067129629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4918,14 +4953,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45736</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,8 +4972,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>8.9</v>
+        <v>10.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4975,14 +5015,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45975</v>
+        <v>45287</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4994,13 +5034,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5037,14 +5072,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5056,8 +5091,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5094,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44956</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,13 +5153,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5156,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45106</v>
+        <v>45825</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5175,13 +5210,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5218,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45797</v>
+        <v>44468.62</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5237,8 +5267,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5275,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5300,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10.8</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5337,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45531</v>
+        <v>45895</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5362,7 +5397,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>21.8</v>
+        <v>11.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5399,14 +5434,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5416,11 +5451,6 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -5461,14 +5491,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45698</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5481,7 +5511,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5518,14 +5548,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45895</v>
+        <v>45593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5537,13 +5567,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5580,14 +5605,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5599,8 +5624,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5637,14 +5667,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44524</v>
+        <v>45897</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5656,8 +5686,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5694,14 +5729,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5719,7 +5754,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5756,14 +5791,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5781,7 +5816,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>16.6</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5818,14 +5853,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5878,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5915,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>45897</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5905,7 +5940,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.4</v>
+        <v>16.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5942,14 +5977,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45897</v>
+        <v>45574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5967,7 +6002,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6011,7 +6046,7 @@
         <v>45897</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,14 +6101,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45825</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6085,8 +6120,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6123,14 +6163,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45897</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6142,13 +6182,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6185,14 +6220,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>45898</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6210,7 +6245,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.199999999999999</v>
+        <v>18.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6247,14 +6282,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45898</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6272,7 +6307,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>18.1</v>
+        <v>10.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6309,14 +6344,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45124</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6334,7 +6369,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6371,14 +6406,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>45897</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6396,7 +6431,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6433,14 +6468,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6454,11 +6489,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6495,14 +6530,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6515,7 +6550,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6552,14 +6587,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45574</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6571,13 +6606,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6614,14 +6644,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45903</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6633,13 +6663,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6676,14 +6701,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45776</v>
+        <v>44956</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6695,8 +6720,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6733,14 +6763,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6752,8 +6782,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6790,14 +6825,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6809,13 +6844,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6852,14 +6882,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45124</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,11 +6903,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6914,14 +6944,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>45124</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6935,11 +6965,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6976,14 +7006,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45903</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6995,8 +7025,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7033,14 +7068,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7053,7 +7088,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7090,14 +7125,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45897</v>
+        <v>45106</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7115,7 +7150,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7152,14 +7187,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45835</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7173,11 +7208,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7214,14 +7249,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45531</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7235,11 +7270,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>21.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7276,14 +7311,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45797</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,13 +7330,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7338,14 +7368,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7358,7 +7388,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.1</v>
+        <v>10.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7395,14 +7425,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7414,13 +7444,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7457,14 +7482,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7476,13 +7501,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7519,14 +7539,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7540,11 +7560,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7581,14 +7601,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7600,13 +7620,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7643,14 +7658,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7664,11 +7679,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7705,14 +7720,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45897</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7724,8 +7739,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7762,14 +7782,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7782,7 +7802,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7819,14 +7839,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7838,13 +7858,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7881,14 +7896,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45925</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7900,13 +7915,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7943,14 +7953,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45827</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7978,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8005,14 +8015,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45776</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8024,13 +8034,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8067,14 +8072,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45155</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8086,8 +8091,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8124,14 +8134,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45827</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8145,11 +8155,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8186,14 +8196,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8216,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8243,14 +8253,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8263,7 +8273,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8300,14 +8310,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45448</v>
+        <v>45155</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8330,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8357,14 +8367,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45925</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8378,11 +8388,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8419,14 +8429,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8440,11 +8450,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8481,14 +8491,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8500,13 +8510,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8543,14 +8548,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45338</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8563,7 +8568,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8605,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45901</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8619,13 +8624,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8662,14 +8662,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45575</v>
+        <v>45578</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8781,14 +8781,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8843,14 +8843,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8862,8 +8862,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8900,14 +8905,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8919,8 +8924,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8957,14 +8967,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45608</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8978,11 +8988,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9019,14 +9029,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9038,8 +9048,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9076,14 +9091,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45934</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9097,11 +9112,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9138,14 +9153,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45934</v>
+        <v>45574</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9163,7 +9178,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>11.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9200,14 +9215,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45107</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9225,7 +9240,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9262,14 +9277,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9287,7 +9302,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9324,14 +9339,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9345,11 +9360,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9386,14 +9401,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45934</v>
+        <v>45975</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9411,7 +9426,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9448,14 +9463,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45827</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9469,11 +9484,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9510,14 +9525,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>45827</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9531,11 +9546,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9572,14 +9587,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9593,11 +9608,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9634,14 +9649,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45934</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9659,7 +9674,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9696,14 +9711,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9721,7 +9736,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9758,14 +9773,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>45575</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9779,11 +9794,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9820,14 +9835,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9845,7 +9860,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9882,14 +9897,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>44939</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9901,13 +9916,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9944,14 +9954,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9969,7 +9979,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10006,14 +10016,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10025,8 +10035,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10063,14 +10078,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10082,8 +10097,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10120,14 +10140,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>45533.9425</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10139,13 +10159,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10182,14 +10197,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10201,8 +10216,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>9.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10239,14 +10259,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>44903</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10258,13 +10278,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10301,14 +10316,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45089</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10322,11 +10337,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10363,14 +10378,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45145</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10383,7 +10398,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10420,14 +10435,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10441,11 +10456,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10482,14 +10497,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44720</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10503,11 +10518,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.3</v>
+        <v>12.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10544,14 +10559,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10563,13 +10578,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10606,14 +10616,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45085</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10626,7 +10636,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10663,14 +10673,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10682,8 +10692,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10720,14 +10735,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45835</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10741,11 +10756,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10782,14 +10797,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>44690</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10803,11 +10818,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10844,14 +10859,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45581</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10863,13 +10878,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10906,14 +10916,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44482</v>
+        <v>45107</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10927,11 +10937,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>17.8</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10968,14 +10978,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10987,8 +10997,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>10.8</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11025,14 +11040,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45155</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11045,7 +11060,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11082,14 +11097,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45581</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11099,6 +11114,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -11139,14 +11159,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45035</v>
+        <v>45868</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11159,7 +11179,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11196,14 +11216,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11216,7 +11236,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11253,14 +11273,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45868</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11273,7 +11293,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11310,14 +11330,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11329,13 +11349,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>30.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11372,14 +11387,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11391,13 +11406,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11434,14 +11444,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>44701</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11453,8 +11463,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11498,7 +11513,7 @@
         <v>45835.39456018519</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11553,14 +11568,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45085</v>
+        <v>45769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11572,8 +11587,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11610,14 +11630,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44369</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11629,13 +11649,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11672,14 +11687,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11692,7 +11707,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>30.3</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11729,14 +11744,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45769</v>
+        <v>44720</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11754,7 +11769,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11791,14 +11806,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11811,7 +11826,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11848,14 +11863,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>45614</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11868,7 +11883,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11905,14 +11920,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11925,7 +11940,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11962,14 +11977,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45124</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11987,7 +12002,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.8</v>
+        <v>11.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12024,14 +12039,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>44734</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12043,8 +12058,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12081,14 +12101,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12101,7 +12121,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12145,7 +12165,7 @@
         <v>46002.33436342593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12200,14 +12220,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45638</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12220,7 +12240,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12264,7 +12284,7 @@
         <v>46049.55398148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12314,14 +12334,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12333,13 +12353,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12376,14 +12391,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12395,8 +12410,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12433,14 +12453,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44917</v>
+        <v>45736</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12452,13 +12472,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>8.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12495,14 +12510,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12514,8 +12529,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>12.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12552,14 +12572,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12571,13 +12591,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12614,14 +12629,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44284</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12633,8 +12648,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12671,14 +12691,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45583</v>
+        <v>44917</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12696,7 +12716,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12733,14 +12753,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12758,7 +12778,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12795,14 +12815,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12814,8 +12834,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12852,14 +12877,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45611</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12871,13 +12896,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12914,14 +12934,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45581</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12934,7 +12954,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12971,14 +12991,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44564</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12990,13 +13010,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13033,14 +13048,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45578</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13054,11 +13069,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13095,14 +13110,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13114,8 +13129,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13152,14 +13172,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44790</v>
+        <v>44524</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13172,7 +13192,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13209,14 +13229,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>44917</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13228,8 +13248,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13266,14 +13291,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45217</v>
+        <v>44284</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13286,7 +13311,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13323,14 +13348,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45581</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13342,13 +13367,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13385,14 +13405,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45574</v>
+        <v>44564</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13410,7 +13430,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13447,14 +13467,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>45614</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13467,7 +13487,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13504,14 +13524,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45614</v>
+        <v>45583</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13523,8 +13543,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>7.1</v>
+        <v>16.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13561,14 +13586,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44917</v>
+        <v>45583</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13611,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.1</v>
+        <v>24</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13623,14 +13648,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13642,13 +13667,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13685,14 +13705,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13704,13 +13724,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13747,14 +13762,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45287</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13767,7 +13782,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13804,14 +13819,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45338</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13824,7 +13839,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13861,14 +13876,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45390</v>
+        <v>45217</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13880,13 +13895,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>17.8</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13923,14 +13933,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13943,7 +13953,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13980,14 +13990,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45526</v>
+        <v>45649</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13999,8 +14009,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14037,14 +14052,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14056,8 +14071,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14094,14 +14114,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>45608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14113,8 +14133,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14151,14 +14176,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44690</v>
+        <v>44694</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14176,7 +14201,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14213,14 +14238,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44903</v>
+        <v>45124</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14232,8 +14257,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14270,14 +14300,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45578</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14289,13 +14319,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14332,14 +14357,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45578</v>
+        <v>44790</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14351,13 +14376,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14394,14 +14414,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45155</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14413,13 +14433,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14456,14 +14471,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45124</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,13 +14490,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14518,14 +14528,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>44482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14537,8 +14547,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>17.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14575,14 +14590,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44938</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14594,13 +14609,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>14.7</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14637,14 +14647,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44701</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14656,13 +14666,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14699,14 +14704,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44690</v>
+        <v>44817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14724,7 +14729,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14761,14 +14766,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14786,7 +14791,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14823,14 +14828,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>44938</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14848,7 +14853,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>12.8</v>
+        <v>14.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14885,14 +14890,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44916</v>
+        <v>44607</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14906,11 +14911,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14947,14 +14952,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>44503</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14966,8 +14971,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15004,14 +15014,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45030</v>
+        <v>45177</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15023,13 +15033,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15066,14 +15071,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>44369</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15085,8 +15090,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15123,14 +15133,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>45265</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15142,13 +15152,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>11.2</v>
+        <v>2.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15185,14 +15190,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45518</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15205,7 +15210,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15242,14 +15247,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15262,7 +15267,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15299,14 +15304,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44939</v>
+        <v>45145</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15319,7 +15324,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15356,14 +15361,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44468.62</v>
+        <v>44916</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15381,7 +15386,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15418,14 +15423,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>45030</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,8 +15442,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15475,14 +15485,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39095-2022</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44817</v>
+        <v>45518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,13 +15504,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15537,14 +15542,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44607</v>
+        <v>45526</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,13 +15561,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15599,14 +15599,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45177</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15618,8 +15618,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15656,14 +15661,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45583</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15675,8 +15680,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15713,14 +15723,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45103</v>
+        <v>45578</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15738,7 +15748,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15775,14 +15785,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45103</v>
+        <v>45611</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15800,7 +15810,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15844,7 +15854,7 @@
         <v>45578</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15899,14 +15909,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15918,13 +15928,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15961,14 +15966,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44694</v>
+        <v>45103</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15986,7 +15991,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16023,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45583</v>
+        <v>45578</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16048,7 +16053,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>16.8</v>
+        <v>4.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16085,14 +16090,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45583</v>
+        <v>44690</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16110,7 +16115,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>24</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45103</v>
+        <v>45638</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16166,13 +16171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>10.4</v>
+        <v>0.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,14 +673,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 43083-2025</t>
+          <t>A 65215-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45909.6125925926</v>
+        <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -692,11 +692,16 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>13.7</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -726,6 +731,101 @@
         <v>7</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tretåig hackspett
+Vedtrappmossa
+Flagellkvastmossa
+Gulnål
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 43083-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45909.6125925926</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -736,135 +836,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 65215-2021</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tretåig hackspett
-Vedtrappmossa
-Flagellkvastmossa
-Gulnål
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65215-2021 artfynd.xlsx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65215-2021 karta.png", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65215-2021 FSC-klagomål.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65215-2021 FSC-klagomål mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65215-2021 tillsynsbegäran.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65215-2021 tillsynsbegäran mail.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65215-2021 prioriterade fågelarter.docx", "A 65215-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41623-2024</t>
+          <t>A 65216-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45560</v>
+        <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,20 +985,25 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1010,15 +1015,103 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Garnlav
+Tallriska
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41623-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skuggmalmätare
 Brunflammig fältmätare
@@ -1026,124 +1119,31 @@
 Ligusterfly</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 65216-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Garnlav
-Tallriska
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,14 +1330,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 62105-2022</t>
+          <t>A 49157-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44920</v>
+        <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,16 +1350,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1384,222 +1384,222 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 62105-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 53729-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45614</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>14</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Smal svampklubba</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24791-2024</t>
+          <t>A 13233-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45460</v>
+        <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1639,42 +1639,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tunnvingemätare</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
         <v/>
       </c>
     </row>
@@ -1688,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,14 +1762,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 57978-2025</t>
+          <t>A 24791-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45982.39730324074</v>
+        <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1785,13 +1781,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1800,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1815,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1825,119 +1816,128 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 57978-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45982.39730324074</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 13233-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45002.7306712963</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tunnvingemätare</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 13233-2023 artfynd.xlsx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 13233-2023 karta.png", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 13233-2023 FSC-klagomål.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 13233-2023 FSC-klagomål mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 13233-2023 tillsynsbegäran.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 13233-2023 tillsynsbegäran mail.docx", "A 13233-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44435</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44412</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,8 +3576,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3614,14 +3619,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44503</v>
+        <v>45089</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3635,11 +3640,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3676,14 +3681,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17428-2025</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45757.4027199074</v>
+        <v>45614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3696,7 +3701,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48501-2025</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45936.37960648148</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,13 +3757,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 48534-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45934</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3814,13 +3814,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3857,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48540-2025</t>
+          <t>A 62810-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45934</v>
+        <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3882,7 +3877,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3919,14 +3914,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48582-2025</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45936.4577199074</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3938,13 +3933,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3981,14 +3971,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48515-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45936.39302083333</v>
+        <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4002,11 +3992,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4043,14 +4033,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 48542-2025</t>
+          <t>A 61580-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45934</v>
+        <v>45265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4062,13 +4052,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4105,14 +4090,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48506-2025</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45936.38331018519</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4124,13 +4109,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4167,14 +4147,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48573-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45936.45064814815</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4186,13 +4166,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4229,14 +4204,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4248,8 +4223,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4286,14 +4266,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48564-2025</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45934</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4305,13 +4285,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4348,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48936-2025</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45937.52623842593</v>
+        <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4369,11 +4344,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4410,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45531</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4429,8 +4404,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>21.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4467,14 +4447,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48937-2025</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45937.52811342593</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4486,13 +4466,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4529,14 +4504,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13803-2024</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45390</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,13 +4523,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>17.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4591,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18975-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45764.54383101852</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4616,7 +4586,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4653,14 +4623,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48941-2025</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45937.53335648148</v>
+        <v>44524</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4672,13 +4642,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4715,14 +4680,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4772,14 +4737,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45832</v>
+        <v>45574</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,8 +4756,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4829,14 +4799,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31162-2023</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45103</v>
+        <v>45124</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4854,7 +4824,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.4</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4861,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>45736</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,13 +4880,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4953,14 +4918,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,13 +4937,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>10.8</v>
+        <v>5.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5015,14 +4975,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 65005-2023</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45287</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5034,8 +4994,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5072,14 +5037,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28778-2024</t>
+          <t>A 43267-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45478.6056712963</v>
+        <v>45568.37403935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,13 +5056,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45155</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5114,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45825</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53395-2021</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44468.62</v>
+        <v>45832</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5267,13 +5227,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26597-2021</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44348.6058449074</v>
+        <v>45448</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,13 +5284,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5322,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45895</v>
+        <v>45338</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5391,13 +5341,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>11.9</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5434,14 +5379,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13389-2024</t>
+          <t>A 28981-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45387.40418981481</v>
+        <v>45821.35517361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5453,8 +5398,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5441,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6313-2025</t>
+          <t>A 29004-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45698</v>
+        <v>45821.39295138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5510,8 +5460,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5503,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48780-2024</t>
+          <t>A 29009-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45593</v>
+        <v>45821.40370370371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5567,8 +5522,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5605,14 +5565,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 29008-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45895</v>
+        <v>45821.39887731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5626,11 +5586,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5627,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 29000-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45897</v>
+        <v>45821.38925925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5688,11 +5648,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5729,14 +5689,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45897</v>
+        <v>45575</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5754,7 +5714,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5791,14 +5751,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45897</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5810,13 +5770,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5853,14 +5808,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45898</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5878,7 +5833,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5915,14 +5870,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 29572-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45897</v>
+        <v>45825.36898148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5940,7 +5895,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>16.6</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5977,14 +5932,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 29020-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45574</v>
+        <v>45821.42728009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5998,11 +5953,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6039,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45897</v>
+        <v>45608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6019,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6101,14 +6056,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48934-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45937.52383101852</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6122,11 +6077,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>10.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6163,14 +6118,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48969-2025</t>
+          <t>A 30428-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45937.56372685185</v>
+        <v>45827</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6182,8 +6137,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6220,14 +6180,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 30002-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45898</v>
+        <v>45826.52493055556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6241,11 +6201,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>18.1</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6282,14 +6242,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30172-2023</t>
+          <t>A 30430-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45110.5818287037</v>
+        <v>45827</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6307,7 +6267,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>10.8</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6344,14 +6304,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34926-2023</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45142.49333333333</v>
+        <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6365,11 +6325,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6406,14 +6366,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6431,7 +6391,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>11.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6468,14 +6428,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48943-2025</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45937.53585648148</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,13 +6447,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6530,14 +6485,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6549,8 +6504,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6587,14 +6547,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 40933-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45897</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6606,8 +6566,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>16.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6644,14 +6609,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>45897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6663,8 +6628,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6701,14 +6671,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4989-2023</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44956</v>
+        <v>45897</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6726,7 +6696,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6763,14 +6733,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50023-2025</t>
+          <t>A 30931-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45943.37494212963</v>
+        <v>45832.40206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6784,11 +6754,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6825,14 +6795,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50865-2025</t>
+          <t>A 30935-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45946.59532407407</v>
+        <v>45832.40581018518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6844,8 +6814,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6882,14 +6857,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 30928-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45124</v>
+        <v>45832.39780092592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6903,11 +6878,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6944,14 +6919,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 33979-2023</t>
+          <t>A 40854-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45124</v>
+        <v>45897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6969,7 +6944,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7006,14 +6981,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 41017-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7031,7 +7006,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>10.3</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7068,14 +7043,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7499-2024</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45347.84356481482</v>
+        <v>45825</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7088,7 +7063,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7125,14 +7100,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31763-2023</t>
+          <t>A 40964-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45106</v>
+        <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7150,7 +7125,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7187,14 +7162,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32015-2025</t>
+          <t>A 30930-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45835</v>
+        <v>45832.39980324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7212,7 +7187,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7249,14 +7224,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 35151-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45531</v>
+        <v>45145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7268,13 +7243,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>21.8</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7311,14 +7281,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24385-2025</t>
+          <t>A 41383-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45797</v>
+        <v>45898</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7330,8 +7300,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7368,14 +7343,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51693-2025</t>
+          <t>A 41420-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45951.54322916667</v>
+        <v>45898</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7387,8 +7362,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>10.8</v>
+        <v>18.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7425,14 +7405,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53789-2022</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44880.49702546297</v>
+        <v>44720</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7444,8 +7424,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7482,14 +7467,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7501,8 +7486,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7539,14 +7529,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53323-2025</t>
+          <t>A 42287-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45959.35993055555</v>
+        <v>45903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7564,7 +7554,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>10.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7601,14 +7591,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7621,7 +7611,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7658,14 +7648,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 32880-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>45839.59601851852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7669,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -7720,14 +7710,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 43078-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45897</v>
+        <v>45909.60773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7739,13 +7729,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>17</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7782,14 +7767,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59497-2024</t>
+          <t>A 33448-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45638.5459375</v>
+        <v>45841.46513888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7787,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7839,14 +7824,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 57129-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45448</v>
+        <v>44482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7858,8 +7843,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>17.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7896,14 +7886,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 33181-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>45840.59094907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7906,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7953,14 +7943,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26469-2025</t>
+          <t>A 33666-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45807.45302083333</v>
+        <v>45841.67148148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7974,11 +7964,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>12.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8015,14 +8005,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20673-2025</t>
+          <t>A 33622-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45776</v>
+        <v>45841.63055555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8034,8 +8024,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8072,14 +8067,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27343-2025</t>
+          <t>A 43638-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45812.61828703704</v>
+        <v>45911.73936342593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8091,13 +8086,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8134,14 +8124,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27341-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45812.61592592593</v>
+        <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8153,13 +8143,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8196,14 +8181,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 40864-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45897</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8213,6 +8198,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -8253,14 +8243,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12482-2023</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44999.65438657408</v>
+        <v>45581</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8263,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8310,14 +8300,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 44479-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45155</v>
+        <v>45916.64740740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8329,8 +8319,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8367,14 +8362,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 17276-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45925</v>
+        <v>45035</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8386,13 +8381,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8429,14 +8419,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 35079-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45901</v>
+        <v>45852.48940972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8450,11 +8440,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8491,14 +8481,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 35071-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45852.47094907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8510,8 +8500,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8548,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 45045-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45919.26885416666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8568,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8605,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 45785-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45923.55998842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8625,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8662,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 46492-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45925</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8681,8 +8676,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8719,14 +8719,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45538-2024</t>
+          <t>A 122-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45578</v>
+        <v>45659.54782407408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8738,13 +8738,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8781,14 +8776,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 36425-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8800,13 +8795,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8843,14 +8833,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 32012-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45835.39809027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8868,7 +8858,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8905,14 +8895,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 47023-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>45929.57790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8924,13 +8914,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8967,14 +8952,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 47017-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45929.57561342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8986,13 +8971,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9029,14 +9009,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 41610-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>45901</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9050,11 +9030,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9091,14 +9071,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 47549-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>45931.36796296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9110,13 +9090,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9153,14 +9128,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44760-2024</t>
+          <t>A 59629-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45574</v>
+        <v>45638.89961805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9172,13 +9147,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9215,14 +9185,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 47411-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45930.61648148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9234,13 +9204,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9277,14 +9242,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 32010-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45835.39456018519</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9302,7 +9267,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9339,14 +9304,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>45085</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9358,13 +9323,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9401,14 +9361,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56859-2025</t>
+          <t>A 48204-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45975</v>
+        <v>45933.48327546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9420,13 +9380,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9463,14 +9418,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 48534-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45827</v>
+        <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9488,7 +9443,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9525,14 +9480,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 48540-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45827</v>
+        <v>45934</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9550,7 +9505,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9587,14 +9542,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57400-2025</t>
+          <t>A 48582-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45980.43373842593</v>
+        <v>45936.4577199074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,11 +9563,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9649,14 +9604,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57392-2025</t>
+          <t>A 48506-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45980.42310185185</v>
+        <v>45936.38331018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,11 +9625,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9711,14 +9666,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 48564-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9732,11 +9687,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9773,14 +9728,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 48573-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45575</v>
+        <v>45936.45064814815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9794,11 +9749,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9835,14 +9790,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 48501-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45936.37960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9860,7 +9815,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9897,14 +9852,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2607-2023</t>
+          <t>A 48542-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44939</v>
+        <v>45934</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9916,8 +9871,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9954,14 +9914,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 48515-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45936.39302083333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9979,7 +9939,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10016,14 +9976,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>44369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10037,11 +9997,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10078,14 +10038,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 48941-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45583</v>
+        <v>45937.53335648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10099,11 +10059,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10140,14 +10100,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36108-2024</t>
+          <t>A 48937-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45533.9425</v>
+        <v>45937.52811342593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10159,8 +10119,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10197,14 +10162,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 48943-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45937.53585648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10218,11 +10183,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10259,14 +10224,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58823-2022</t>
+          <t>A 48934-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44903</v>
+        <v>45937.52383101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10278,8 +10243,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10316,14 +10286,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 48969-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45089</v>
+        <v>45937.56372685185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10335,13 +10305,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10378,14 +10343,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10397,8 +10362,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>9.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10435,14 +10405,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 48936-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>45937.52623842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10456,11 +10426,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10497,14 +10467,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>45614</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10516,13 +10486,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>12.8</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10559,14 +10524,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10579,7 +10544,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10616,14 +10581,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 50023-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45085</v>
+        <v>45943.37494212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10635,8 +10600,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10673,14 +10643,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>45124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,11 +10664,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10735,14 +10705,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 50865-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45946.59532407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10754,13 +10724,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10797,14 +10762,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 18938-2022</t>
+          <t>A 32015-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44690</v>
+        <v>45835</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10818,11 +10783,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10859,14 +10824,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 51693-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45581</v>
+        <v>45951.54322916667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10879,7 +10844,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10916,14 +10881,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45107</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10935,13 +10900,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10978,14 +10938,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 59495-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45638</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10997,13 +10957,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11040,14 +10995,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 53323-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45959.35993055555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,8 +11014,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11097,14 +11057,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11118,11 +11078,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11159,14 +11119,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45868</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11179,7 +11139,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11216,14 +11176,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11235,8 +11195,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11273,14 +11238,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 26617-2022</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44739.57129629629</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11293,7 +11258,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11330,14 +11295,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 2614-2026</t>
+          <t>A 19750-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46037.58800925926</v>
+        <v>45771.38583333333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11349,8 +11314,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>30.3</v>
+        <v>2.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11387,14 +11357,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53591-2024</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45614.67206018518</v>
+        <v>44284</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11407,7 +11377,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11444,14 +11414,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20797-2022</t>
+          <t>A 56859-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44701</v>
+        <v>45975</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11469,7 +11439,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11506,14 +11476,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 46812-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45583</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11527,11 +11497,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11568,14 +11538,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 19368-2025</t>
+          <t>A 29436-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45769</v>
+        <v>45106.49378472222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11587,13 +11557,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11630,14 +11595,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2667-2026</t>
+          <t>A 57400-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46037.64480324074</v>
+        <v>45980.43373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11649,8 +11614,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11687,14 +11657,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 53031-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>45611</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11706,8 +11676,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11744,14 +11719,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 57392-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44720</v>
+        <v>45980.42310185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11769,7 +11744,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11806,14 +11781,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11826,7 +11801,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11863,14 +11838,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45614</v>
+        <v>44564</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11882,8 +11857,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11920,14 +11900,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53753-2024</t>
+          <t>A 45537-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45614</v>
+        <v>45578</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11939,8 +11919,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11977,14 +11962,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23372-2022</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44720.61091435186</v>
+        <v>44790</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11996,13 +11981,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12039,14 +12019,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 2614-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44734</v>
+        <v>46037.58800925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12058,13 +12038,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>30.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12101,14 +12076,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4013-2026</t>
+          <t>A 2667-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46044.41157407407</v>
+        <v>46037.64480324074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12121,7 +12096,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12158,14 +12133,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 61579-2025</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46002.33436342593</v>
+        <v>45217</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12177,13 +12152,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12220,14 +12190,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12239,8 +12209,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12277,14 +12252,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 5094-2026</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46049.55398148148</v>
+        <v>45574</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12296,8 +12271,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>11.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12334,14 +12314,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 392-2022</t>
+          <t>A 4013-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44565.68466435185</v>
+        <v>46044.41157407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12354,7 +12334,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12391,14 +12371,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 52489-2022</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44874.49135416667</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12410,13 +12390,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12453,14 +12428,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 61579-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45736</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12472,8 +12447,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12510,14 +12490,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30414-2023</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45111.5005787037</v>
+        <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12529,13 +12509,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>12.8</v>
+        <v>7.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12572,14 +12547,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>44917</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12591,8 +12566,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12629,14 +12609,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 63411-2025</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46013.30025462963</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12650,11 +12630,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12691,14 +12671,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62667-2022</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44917</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12712,11 +12692,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12753,14 +12733,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44788-2021</t>
+          <t>A 5094-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44438.4766087963</v>
+        <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12772,13 +12752,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12815,14 +12790,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>45287</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12834,13 +12809,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12877,14 +12847,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 14500-2024</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45394.59287037037</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12897,7 +12867,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12934,14 +12904,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3652-2026</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46043.37194444444</v>
+        <v>45390</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12953,8 +12923,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>17.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12991,14 +12966,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 5092-2026</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46049.55364583333</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13011,7 +12986,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13048,14 +13023,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 19742-2025</t>
+          <t>A 34712-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45771.37377314815</v>
+        <v>45526</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13067,13 +13042,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13110,14 +13080,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19746-2025</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45771.38315972222</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13129,13 +13099,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13172,14 +13137,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 63411-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44524</v>
+        <v>46013.30025462963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13191,8 +13156,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13229,14 +13199,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 62679-2022</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44917</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13248,13 +13218,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13291,14 +13256,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 15325-2021</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44284</v>
+        <v>44690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13310,8 +13275,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13348,14 +13318,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 46082-2024</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45581</v>
+        <v>44903</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13368,7 +13338,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13405,14 +13375,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 289-2022</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44564</v>
+        <v>45578</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13430,7 +13400,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13467,14 +13437,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53887-2024</t>
+          <t>A 45539-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45614</v>
+        <v>45578</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13486,8 +13456,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13524,14 +13499,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 46801-2024</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45583</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13549,7 +13524,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>16.8</v>
+        <v>3.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13586,14 +13561,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 46809-2024</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45583</v>
+        <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13611,7 +13586,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>24</v>
+        <v>6.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13648,14 +13623,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13668,7 +13643,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13705,14 +13680,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16470-2025</t>
+          <t>A 3652-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45751.54487268518</v>
+        <v>46043.37194444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13725,7 +13700,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13762,14 +13737,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 5092-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>46049.55364583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13782,7 +13757,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13819,14 +13794,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45338</v>
+        <v>44938</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13838,8 +13813,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>4.1</v>
+        <v>14.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13876,14 +13856,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50524-2023</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45217</v>
+        <v>44701</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13895,8 +13875,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13933,14 +13918,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53595-2024</t>
+          <t>A 18932-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45614.67861111111</v>
+        <v>44690</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13952,8 +13937,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13990,14 +13980,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45649</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14015,7 +14005,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14052,14 +14042,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31295-2023</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45103</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14077,7 +14067,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.2</v>
+        <v>12.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14114,14 +14104,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 62421-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45608</v>
+        <v>44916</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14139,7 +14129,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14176,14 +14166,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 19857-2022</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44694</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14195,13 +14185,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14238,14 +14223,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 33976-2023</t>
+          <t>A 16613-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45124</v>
+        <v>45030</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14259,11 +14244,11 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14300,14 +14285,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55787-2023</t>
+          <t>A 57090-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45239.51128472222</v>
+        <v>44895.46328703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14320,7 +14305,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14357,14 +14342,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 33861-2022</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44790</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14376,8 +14361,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>11.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14414,14 +14404,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 33193-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45155</v>
+        <v>45518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14434,7 +14424,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14471,14 +14461,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 26260-2024</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45468.65731481482</v>
+        <v>45533.9425</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14491,7 +14481,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14528,14 +14518,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 57129-2021</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44482</v>
+        <v>44939</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14547,13 +14537,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>17.8</v>
+        <v>6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14590,14 +14575,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>44468.62</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14609,8 +14594,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14647,14 +14637,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14667,7 +14657,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14711,7 +14701,7 @@
         <v>44817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14766,14 +14756,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46146-2022</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44847.4584375</v>
+        <v>44607</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14787,11 +14777,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14828,14 +14818,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 1683-2023</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44938</v>
+        <v>45177</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14847,13 +14837,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>14.7</v>
+        <v>4.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14890,14 +14875,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 7903-2022</t>
+          <t>A 17428-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44607</v>
+        <v>45757.4027199074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14909,13 +14894,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14952,14 +14932,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 31167-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44503</v>
+        <v>45103</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14977,7 +14957,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15014,14 +14994,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 42761-2023</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45177</v>
+        <v>45103</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15033,8 +15013,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15071,14 +15056,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31549-2021</t>
+          <t>A 45536-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44369</v>
+        <v>45578</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15096,7 +15081,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15133,14 +15118,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45265</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,8 +15137,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15190,14 +15180,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57090-2022</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44895.46328703704</v>
+        <v>44694</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,8 +15199,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15247,14 +15242,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45035</v>
+        <v>45583</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,8 +15261,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>16.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15304,14 +15304,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45145</v>
+        <v>45583</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,8 +15323,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15361,14 +15366,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 62421-2022</t>
+          <t>A 31162-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44916</v>
+        <v>45103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15386,7 +15391,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15423,14 +15428,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 16613-2023</t>
+          <t>A 28778-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45030</v>
+        <v>45478.6056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15444,11 +15449,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15485,14 +15490,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 33193-2024</t>
+          <t>A 48780-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45518</v>
+        <v>45593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15505,7 +15510,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15542,14 +15547,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 34712-2024</t>
+          <t>A 6313-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45526</v>
+        <v>45698</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15562,7 +15567,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15599,14 +15604,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 19750-2025</t>
+          <t>A 13389-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45771.38583333333</v>
+        <v>45387.40418981481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15618,13 +15623,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15661,14 +15661,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46812-2024</t>
+          <t>A 30172-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45583</v>
+        <v>45110.5818287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.3</v>
+        <v>10.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15723,14 +15723,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 45539-2024</t>
+          <t>A 34926-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45578</v>
+        <v>45142.49333333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15785,14 +15785,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 53031-2024</t>
+          <t>A 4989-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45611</v>
+        <v>44956</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15847,14 +15847,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 45536-2024</t>
+          <t>A 31763-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45578</v>
+        <v>45106</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15909,14 +15909,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29436-2023</t>
+          <t>A 24385-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45106.49378472222</v>
+        <v>45797</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15966,14 +15966,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 31167-2023</t>
+          <t>A 26469-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45103</v>
+        <v>45807.45302083333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16028,14 +16028,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 45537-2024</t>
+          <t>A 20673-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45578</v>
+        <v>45776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16047,13 +16047,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16090,14 +16085,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18932-2022</t>
+          <t>A 27341-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44690</v>
+        <v>45812.61592592593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16111,11 +16106,11 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59495-2024</t>
+          <t>A 27343-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45638</v>
+        <v>45812.61828703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16171,8 +16166,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44435</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45089</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45112.6903125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44442.55688657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45419.58890046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>45419.59212962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45531</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44999.69774305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45419.61329861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44524</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>45638.89708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>45574</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45124</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45736</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45463.72734953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45771.38807870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45568.37403935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45155</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45638.90166666666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45832</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45448</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45338</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45821.35517361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45821.39295138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45821.40370370371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45821.39887731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45821.38925925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45575</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45754.28462962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45889.33067129629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>45825.36898148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>45821.42728009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>45608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45890.41994212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45827</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45826.52493055556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45827</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45555.48539351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45897</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45897</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45832.40206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45832.40581018518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45832.39780092592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>45897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45897</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45825</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45832.39980324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45898</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45898</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44720</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45086.3722337963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>45903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44858.57143518519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45839.59601851852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45909.60773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45841.46513888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45840.59094907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45841.67148148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45841.63055555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45911.73936342593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45897</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>45581</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45916.64740740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45035</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45852.48940972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45852.47094907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45919.26885416666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45923.55998842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45925</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45659.54782407408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45835.39809027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45929.57790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45929.57561342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45901</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45931.36796296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45638.89961805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45930.61648148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45835.39456018519</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45085</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45933.48327546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45934</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45936.4577199074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45936.38331018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45936.45064814815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45936.37960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45934</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45936.39302083333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45937.53335648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45937.52811342593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45937.53585648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45937.52383101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45937.56372685185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45937.52623842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>45614</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>45638.5459375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45943.37494212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45946.59532407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45835</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45951.54322916667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44739.57129629629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45638</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45959.35993055555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44847.4584375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44880.49702546297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44565.68466435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45771.38583333333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44284</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45975</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45583</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45106.49378472222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45980.43373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45611</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45980.42310185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44564</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45578</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44790</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>46037.58800925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>46037.64480324074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45217</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44348.6058449074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45574</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>46044.41157407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45751.54487268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>46002.33436342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>44917</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45771.37377314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45771.38315972222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45287</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44999.65438657408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45390</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45394.59287037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45526</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45239.51128472222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>46013.30025462963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45614.67206018518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44903</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>45578</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>45578</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44874.49135416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45614.67861111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>46043.37194444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>46049.55364583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44938</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44701</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44690</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44438.4766087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45111.5005787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44916</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45347.84356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45030</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44895.46328703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44720.61091435186</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45533.9425</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44939</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44468.62</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45468.65731481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44607</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45177</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45757.4027199074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45103</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45103</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45578</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45764.54383101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44694</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45583</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45583</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45478.6056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45698</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45387.40418981481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45110.5818287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45142.49333333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44956</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45106</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45797</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45807.45302083333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45812.61592592593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45812.61828703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>45909.6125925926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44515</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44515</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45560</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44434</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>45936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45210</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44920</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45614</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45623</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45460</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45982.39730324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>44278.57494212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>44511</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44438.49981481482</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44438.59085648148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44544</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44513</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44435</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44595.85019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44328</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>44302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>44866.62049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44435.33862268519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44424</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44790</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44778.32798611111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44278</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44812</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44284</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45649</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45089</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45112.6903125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44442.55688657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>45726.4325462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45583</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45265</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45419.58890046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>45419.59212962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45399.68209490741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44734</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45531</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44999.69774305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>45419.61329861111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>45583.57623842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44524</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>45638.89708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>45574</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45124</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45736</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45463.72734953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45771.38807870371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45568.37403935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45155</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45638.90166666666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45832</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45448</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45338</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45821.35517361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45821.39295138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45821.40370370371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45821.39887731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45821.38925925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45575</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45754.28462962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45889.33067129629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>45825.36898148148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>45821.42728009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>45608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45890.41994212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45827</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45826.52493055556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>45827</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>45895</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45555.48539351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>45895</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>45897</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45897</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45897</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45832.40206018519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45832.40581018518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45832.39780092592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>45897</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45897</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>45825</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         <v>45897</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45832.39980324074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>45145</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45898</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>45898</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44720</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45086.3722337963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>45903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44858.57143518519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45839.59601851852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>45909.60773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45841.46513888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45840.59094907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45841.67148148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45841.63055555556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45911.73936342593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45155</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45897</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>45581</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8307,7 +8307,7 @@
         <v>45916.64740740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45035</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45852.48940972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45852.47094907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45919.26885416666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45923.55998842593</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45925</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45659.54782407408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45835.39809027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45929.57790509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45929.57561342593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45901</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>45931.36796296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45638.89961805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45930.61648148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45835.39456018519</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45085</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45933.48327546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>45934</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45934</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45936.4577199074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45936.38331018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>45934</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45936.45064814815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45936.37960648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45934</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45936.39302083333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44369</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45937.53335648148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45937.52811342593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45937.53585648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>45937.52383101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>45937.56372685185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>45769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45937.52623842593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>45614</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>45638.5459375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45943.37494212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45946.59532407407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45835</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45951.54322916667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44739.57129629629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45638</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45959.35993055555</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>44847.4584375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44880.49702546297</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44565.68466435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>45771.38583333333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44284</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45975</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45583</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45106.49378472222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>45980.43373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45611</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45980.42310185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44564</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45578</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44790</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>46037.58800925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>46037.64480324074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45217</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44348.6058449074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45574</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>46044.41157407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45751.54487268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>46002.33436342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         <v>45614</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>44917</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45771.37377314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45771.38315972222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>46049.55398148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45287</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44999.65438657408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45390</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45394.59287037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45526</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45239.51128472222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>46013.30025462963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45614.67206018518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44690</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>44903</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>45578</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>45578</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44874.49135416667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45614.67861111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>46043.37194444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>46049.55364583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44938</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44701</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44690</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>44438.4766087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45111.5005787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44916</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45347.84356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45030</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44895.46328703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44720.61091435186</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>45518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>45533.9425</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44939</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44468.62</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45468.65731481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44817</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44607</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45177</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45757.4027199074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45103</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45103</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45578</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45764.54383101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>44694</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45583</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45583</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45103</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45478.6056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>45698</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>45387.40418981481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>45110.5818287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>45142.49333333333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44956</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>45106</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>45797</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>45807.45302083333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>45776</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45812.61592592593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45812.61828703704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z255"/>
+  <dimension ref="A1:Z252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44403</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -773,14 +773,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 43083-2025</t>
+          <t>A 65217-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45909.6125925926</v>
+        <v>44515</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -792,14 +792,19 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>13.7</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -823,109 +828,9 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Talltita
-Tretåig hackspett
-Dropptaggsvamp
-Rödgul trumpetsvamp
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43083-2025 artfynd.xlsx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43083-2025 karta.png", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43083-2025 FSC-klagomål.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43083-2025 FSC-klagomål mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43083-2025 tillsynsbegäran.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43083-2025 tillsynsbegäran mail.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 43083-2025 prioriterade fågelarter.docx", "A 43083-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 65217-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44515</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Tallriska
@@ -934,96 +839,96 @@
 Bollvitmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65217-2021 artfynd.xlsx", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65217-2021 karta.png", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65217-2021 FSC-klagomål.docx", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65217-2021 FSC-klagomål mail.docx", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65217-2021 tillsynsbegäran.docx", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65217-2021 tillsynsbegäran mail.docx", "A 65217-2021")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 65217-2021 prioriterade fågelarter.docx", "A 65217-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 65216-2021</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44515</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G5" t="n">
         <v>1.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Garnlav
@@ -1031,87 +936,87 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 65216-2021 artfynd.xlsx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 65216-2021 karta.png", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 65216-2021 FSC-klagomål.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 65216-2021 FSC-klagomål mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 65216-2021 tillsynsbegäran.docx", "A 65216-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 65216-2021 tillsynsbegäran mail.docx", "A 65216-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 41623-2024</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45560</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Skuggmalmätare
 Brunflammig fältmätare
@@ -1119,134 +1024,224 @@
 Ligusterfly</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 41623-2024 artfynd.xlsx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 41623-2024 karta.png", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 41623-2024 FSC-klagomål.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 41623-2024 FSC-klagomål mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 41623-2024 tillsynsbegäran.docx", "A 41623-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 41623-2024 tillsynsbegäran mail.docx", "A 41623-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 43996-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44434</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G7" t="n">
         <v>8.4</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Tvåblad
 Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 43996-2021 artfynd.xlsx", "A 43996-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 43996-2021 karta.png", "A 43996-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 43996-2021 FSC-klagomål.docx", "A 43996-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 43996-2021 FSC-klagomål mail.docx", "A 43996-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 43996-2021 tillsynsbegäran.docx", "A 43996-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 43996-2021 tillsynsbegäran mail.docx", "A 43996-2021")</f>
         <v/>
       </c>
     </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 62105-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
+        <v/>
+      </c>
+    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49300-2025</t>
+          <t>A 49157-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45936</v>
+        <v>45210</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1258,25 +1253,20 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1288,232 +1278,233 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Rödgul trumpetsvamp
+Skogshakmossa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 53729-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Aspfjädermossa
+Smal svampklubba</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 49300-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Rynkskinn
 Ullticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49300-2025 artfynd.xlsx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49300-2025 karta.png", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49300-2025 FSC-klagomål.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49300-2025 FSC-klagomål mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49300-2025 tillsynsbegäran.docx", "A 49300-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49300-2025 tillsynsbegäran mail.docx", "A 49300-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49157-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45210</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Rödgul trumpetsvamp
-Skogshakmossa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 49157-2023 artfynd.xlsx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 49157-2023 karta.png", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 49157-2023 FSC-klagomål.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 49157-2023 FSC-klagomål mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 49157-2023 tillsynsbegäran.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 49157-2023 tillsynsbegäran mail.docx", "A 49157-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 62105-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44920</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LJUSNARSBERG</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 62105-2022 artfynd.xlsx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 62105-2022 karta.png", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 62105-2022 FSC-klagomål.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 62105-2022 FSC-klagomål mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 62105-2022 tillsynsbegäran.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 62105-2022 tillsynsbegäran mail.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 62105-2022 prioriterade fågelarter.docx", "A 62105-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53729-2024</t>
+          <t>A 56179-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,7 +1517,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>0.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1538,54 +1529,53 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Aspfjädermossa
-Smal svampklubba</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 53729-2024 artfynd.xlsx", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 53729-2024 karta.png", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 53729-2024 FSC-klagomål.docx", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 53729-2024 FSC-klagomål mail.docx", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 53729-2024 tillsynsbegäran.docx", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 53729-2024 tillsynsbegäran mail.docx", "A 53729-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1589,7 @@
         <v>45002.7306712963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,14 +1667,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 56179-2024</t>
+          <t>A 24791-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45623</v>
+        <v>45460</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,17 +1687,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1721,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1731,45 +1721,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 56179-2024 artfynd.xlsx", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 56179-2024 karta.png", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 56179-2024 FSC-klagomål.docx", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 56179-2024 FSC-klagomål mail.docx", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 56179-2024 tillsynsbegäran.docx", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 56179-2024 tillsynsbegäran mail.docx", "A 56179-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24791-2024</t>
+          <t>A 57978-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45460</v>
+        <v>45982.39730324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1781,8 +1775,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1791,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1806,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1816,49 +1815,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 24791-2024 artfynd.xlsx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 24791-2024 karta.png", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 24791-2024 FSC-klagomål.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 24791-2024 FSC-klagomål mail.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 24791-2024 tillsynsbegäran.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 24791-2024 tillsynsbegäran mail.docx", "A 24791-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/fåglar/A 24791-2024 prioriterade fågelarter.docx", "A 24791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 57978-2025</t>
+          <t>A 14249-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45982.39730324074</v>
+        <v>44278.57494212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1870,16 +1865,11 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1906,49 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Nattviol</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/artfynd/A 57978-2025 artfynd.xlsx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/kartor/A 57978-2025 karta.png", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomål/A 57978-2025 FSC-klagomål.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/klagomålsmail/A 57978-2025 FSC-klagomål mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsyn/A 57978-2025 tillsynsbegäran.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1864/tillsynsmail/A 57978-2025 tillsynsbegäran mail.docx", "A 57978-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 14249-2021</t>
+          <t>A 31050-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44278.57494212963</v>
+        <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1961,7 +1923,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1998,14 +1960,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 31050-2021</t>
+          <t>A 64400-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44368</v>
+        <v>44511</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2018,7 +1980,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2055,14 +2017,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 64400-2021</t>
+          <t>A 44807-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44511</v>
+        <v>44438.49981481482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2074,8 +2036,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2112,14 +2079,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 44807-2021</t>
+          <t>A 44858-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44438.49981481482</v>
+        <v>44438.59085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2131,13 +2098,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2174,14 +2136,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 44858-2021</t>
+          <t>A 45859-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44438.59085648148</v>
+        <v>44441</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2156,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2231,14 +2193,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45859-2021</t>
+          <t>A 72157-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44441</v>
+        <v>44544</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2213,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2288,14 +2250,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 72157-2021</t>
+          <t>A 45797-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44544</v>
+        <v>44441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2308,7 +2270,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>9.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2345,14 +2307,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45797-2021</t>
+          <t>A 64978-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44441</v>
+        <v>44513</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2365,7 +2327,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.9</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2402,14 +2364,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 64978-2021</t>
+          <t>A 1320-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44513</v>
+        <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2422,7 +2384,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2459,14 +2421,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1320-2022</t>
+          <t>A 5636-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44572</v>
+        <v>44595.85019675926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2479,7 +2441,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2523,7 +2485,7 @@
         <v>44781.64625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2542,7 @@
         <v>44391</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,14 +2592,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39187-2021</t>
+          <t>A 44293-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2650,7 +2612,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2649,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 44293-2021</t>
+          <t>A 39187-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2707,7 +2669,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2706,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 5636-2022</t>
+          <t>A 22869-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44595.85019675926</v>
+        <v>44328</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2763,8 +2725,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2801,14 +2768,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22869-2021</t>
+          <t>A 18080-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44328</v>
+        <v>44302</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2820,13 +2787,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2870,7 +2832,7 @@
         <v>44733.46353009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2889,7 @@
         <v>44812</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2946,7 @@
         <v>44690</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3039,14 +3001,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 18080-2021</t>
+          <t>A 50552-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44302</v>
+        <v>44866.62049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3059,7 +3021,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3096,14 +3058,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50552-2022</t>
+          <t>A 33858-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44866.62049768519</v>
+        <v>44790</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3116,7 +3078,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3153,14 +3115,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44282-2021</t>
+          <t>A 31998-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44435.33862268519</v>
+        <v>44778.32798611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3135,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3172,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41453-2021</t>
+          <t>A 44282-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44424</v>
+        <v>44435.33862268519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3229,13 +3191,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3272,14 +3229,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33858-2022</t>
+          <t>A 41453-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44790</v>
+        <v>44424</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3291,8 +3248,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3329,14 +3291,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31998-2022</t>
+          <t>A 14153-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44778.32798611111</v>
+        <v>44278</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3349,7 +3311,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3386,14 +3348,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14153-2021</t>
+          <t>A 38277-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44278</v>
+        <v>44812</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3406,7 +3368,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3443,14 +3405,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38277-2022</t>
+          <t>A 15329-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44812</v>
+        <v>44284</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3463,7 +3425,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3500,14 +3462,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15329-2021</t>
+          <t>A 12482-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44284</v>
+        <v>44999.65438657408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3557,14 +3519,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61794-2024</t>
+          <t>A 37148-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45649</v>
+        <v>45155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,13 +3538,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3619,14 +3576,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25574-2023</t>
+          <t>A 26617-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45089</v>
+        <v>44739.57129629629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3638,13 +3595,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3681,14 +3633,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53726-2024</t>
+          <t>A 53591-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45614</v>
+        <v>45614.67206018518</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3701,7 +3653,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3738,14 +3690,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30774-2023</t>
+          <t>A 45538-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45112.6903125</v>
+        <v>45578</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3757,8 +3709,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3795,14 +3752,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46263-2021</t>
+          <t>A 19754-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44442.55688657407</v>
+        <v>45771.38807870371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3814,8 +3771,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3852,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62810-2021</t>
+          <t>A 20797-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44503</v>
+        <v>44701</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3877,7 +3839,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3914,14 +3876,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11294-2025</t>
+          <t>A 44760-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45726.4325462963</v>
+        <v>45574</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3933,8 +3895,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>11.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3971,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46805-2024</t>
+          <t>A 19368-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45583</v>
+        <v>45769</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3996,7 +3963,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4033,14 +4000,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61580-2023</t>
+          <t>A 65005-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45265</v>
+        <v>45287</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4053,7 +4020,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4090,14 +4057,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17923-2024</t>
+          <t>A 59627-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45419.58890046296</v>
+        <v>45638.89708333334</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4110,7 +4077,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4147,14 +4114,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17924-2024</t>
+          <t>A 23346-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45419.59212962963</v>
+        <v>44720</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4166,8 +4133,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4204,14 +4176,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62843-2021</t>
+          <t>A 17933-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44503</v>
+        <v>45419.61329861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4223,13 +4195,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4266,14 +4233,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15114-2024</t>
+          <t>A 53726-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45399.68209490741</v>
+        <v>45614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4253,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4290,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26165-2022</t>
+          <t>A 53753-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44734</v>
+        <v>45614</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4342,13 +4309,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4347,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35378-2024</t>
+          <t>A 48353-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45531</v>
+        <v>44858.57143518519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4404,13 +4366,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>21.8</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4447,14 +4404,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12489-2023</t>
+          <t>A 23372-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44999.69774305556</v>
+        <v>44720.61091435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4466,8 +4423,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>11.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4504,14 +4466,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17933-2024</t>
+          <t>A 13803-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45419.61329861111</v>
+        <v>45390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4523,8 +4485,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>17.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4528,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46823-2024</t>
+          <t>A 18975-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45583.57623842593</v>
+        <v>45764.54383101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4586,7 +4553,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4623,14 +4590,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 67746-2021</t>
+          <t>A 44983-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44524</v>
+        <v>45575</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4642,8 +4609,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4680,14 +4652,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59627-2024</t>
+          <t>A 2607-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45638.89708333334</v>
+        <v>44939</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4700,7 +4672,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4737,14 +4709,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44780-2024</t>
+          <t>A 26165-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45574</v>
+        <v>44734</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4762,7 +4734,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4799,14 +4771,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33974-2023</t>
+          <t>A 53395-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45124</v>
+        <v>44468.62</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4824,7 +4796,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4861,14 +4833,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13609-2025</t>
+          <t>A 392-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45736</v>
+        <v>44565.68466435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4881,7 +4853,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.9</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4918,14 +4890,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25671-2024</t>
+          <t>A 26597-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45463.72734953704</v>
+        <v>44348.6058449074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4937,8 +4909,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4975,14 +4952,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 19754-2025</t>
+          <t>A 46805-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45771.38807870371</v>
+        <v>45583</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,11 +4973,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5037,14 +5014,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 43267-2024</t>
+          <t>A 36108-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45568.37403935185</v>
+        <v>45533.9425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5057,7 +5034,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5094,14 +5071,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37148-2023</t>
+          <t>A 52489-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45155</v>
+        <v>44874.49135416667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5113,8 +5090,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5151,14 +5133,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59630-2024</t>
+          <t>A 58823-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45638.90166666666</v>
+        <v>44903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5171,7 +5153,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5208,14 +5190,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31357-2025</t>
+          <t>A 13609-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45832</v>
+        <v>45736</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5228,7 +5210,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5265,14 +5247,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22887-2024</t>
+          <t>A 30414-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45448</v>
+        <v>45111.5005787037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5284,8 +5266,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>12.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5322,14 +5309,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6310-2024</t>
+          <t>A 25574-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45338</v>
+        <v>45089</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5341,8 +5328,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5379,14 +5371,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28981-2025</t>
+          <t>A 46263-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45821.35517361111</v>
+        <v>44442.55688657407</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5398,13 +5390,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5441,14 +5428,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29004-2025</t>
+          <t>A 11294-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45821.39295138889</v>
+        <v>45726.4325462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5460,13 +5447,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5503,14 +5485,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29009-2025</t>
+          <t>A 24921-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45821.40370370371</v>
+        <v>45085</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5522,13 +5504,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5565,14 +5542,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29008-2025</t>
+          <t>A 62667-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45821.39887731482</v>
+        <v>44917</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,11 +5563,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5627,14 +5604,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29000-2025</t>
+          <t>A 44788-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45821.38925925926</v>
+        <v>44438.4766087963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,11 +5625,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5689,14 +5666,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44983-2024</t>
+          <t>A 25098-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45575</v>
+        <v>45086.3722337963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5714,7 +5691,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5751,14 +5728,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16615-2025</t>
+          <t>A 46082-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45754.28462962963</v>
+        <v>45581</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5771,7 +5748,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5808,14 +5785,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39234-2025</t>
+          <t>A 289-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45889.33067129629</v>
+        <v>44564</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5833,7 +5810,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5870,14 +5847,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29572-2025</t>
+          <t>A 18938-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825.36898148148</v>
+        <v>44690</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5895,7 +5872,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5932,14 +5909,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29020-2025</t>
+          <t>A 46085-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45821.42728009259</v>
+        <v>45581</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5951,13 +5928,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5966,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52366-2024</t>
+          <t>A 44780-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45608</v>
+        <v>45574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6019,7 +5991,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6056,14 +6028,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39514-2025</t>
+          <t>A 29721-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45890.41994212963</v>
+        <v>45107</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6077,11 +6049,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10.8</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6118,14 +6090,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30428-2025</t>
+          <t>A 46823-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45827</v>
+        <v>45583.57623842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6143,7 +6115,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6180,14 +6152,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30002-2025</t>
+          <t>A 53887-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45826.52493055556</v>
+        <v>45614</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6199,13 +6171,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6242,14 +6209,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30430-2025</t>
+          <t>A 14500-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45827</v>
+        <v>45394.59287037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6261,13 +6228,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6304,14 +6266,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29721-2023</t>
+          <t>A 46801-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45107</v>
+        <v>45583</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6325,11 +6287,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>16.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6366,14 +6328,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 46809-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45895</v>
+        <v>45583</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6391,7 +6353,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>11.9</v>
+        <v>24</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6428,14 +6390,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40442-2024</t>
+          <t>A 25671-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45555.48539351852</v>
+        <v>45463.72734953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6448,7 +6410,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6485,14 +6447,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40477-2025</t>
+          <t>A 16470-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45895</v>
+        <v>45751.54487268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6504,13 +6466,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6547,14 +6504,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40933-2025</t>
+          <t>A 16615-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45897</v>
+        <v>45754.28462962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6566,13 +6523,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>16.6</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6609,14 +6561,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40852-2025</t>
+          <t>A 30774-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45897</v>
+        <v>45112.6903125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6628,13 +6580,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6671,14 +6618,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41032-2025</t>
+          <t>A 19742-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45897</v>
+        <v>45771.37377314815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6692,11 +6639,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6733,14 +6680,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30931-2025</t>
+          <t>A 19746-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45832.40206018519</v>
+        <v>45771.38315972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6758,7 +6705,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6795,14 +6742,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30935-2025</t>
+          <t>A 17923-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45832.40581018518</v>
+        <v>45419.58890046296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6814,13 +6761,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6857,14 +6799,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30928-2025</t>
+          <t>A 17924-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45832.39780092592</v>
+        <v>45419.59212962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6876,13 +6818,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6919,14 +6856,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40854-2025</t>
+          <t>A 55787-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45897</v>
+        <v>45239.51128472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6938,13 +6875,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6981,14 +6913,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41017-2025</t>
+          <t>A 33861-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45897</v>
+        <v>44790</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7000,13 +6932,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7043,14 +6970,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29595-2025</t>
+          <t>A 37066-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45825</v>
+        <v>45155</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7063,7 +6990,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7100,14 +7027,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40964-2025</t>
+          <t>A 67746-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45897</v>
+        <v>44524</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7119,13 +7046,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7162,14 +7084,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30930-2025</t>
+          <t>A 33974-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45832.39980324074</v>
+        <v>45124</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7183,11 +7105,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7224,14 +7146,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35151-2023</t>
+          <t>A 33979-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45145</v>
+        <v>45124</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7243,8 +7165,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7281,14 +7208,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41383-2025</t>
+          <t>A 6310-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45898</v>
+        <v>45338</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7300,13 +7227,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7343,14 +7265,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41420-2025</t>
+          <t>A 7499-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45898</v>
+        <v>45347.84356481482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7362,13 +7284,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>18.1</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7405,14 +7322,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23346-2022</t>
+          <t>A 62679-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44720</v>
+        <v>44917</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7430,7 +7347,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7467,14 +7384,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25098-2023</t>
+          <t>A 15325-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45086.3722337963</v>
+        <v>44284</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7486,13 +7403,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7529,14 +7441,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42287-2025</t>
+          <t>A 26260-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45903</v>
+        <v>45468.65731481482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7548,13 +7460,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7591,14 +7498,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48353-2022</t>
+          <t>A 50524-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44858.57143518519</v>
+        <v>45217</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7611,7 +7518,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7648,14 +7555,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32880-2025</t>
+          <t>A 35378-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45839.59601851852</v>
+        <v>45531</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7669,11 +7576,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>21.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7710,14 +7617,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43078-2025</t>
+          <t>A 53595-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45909.60773148148</v>
+        <v>45614.67861111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7730,7 +7637,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>17</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7767,14 +7674,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 33448-2025</t>
+          <t>A 61794-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45841.46513888889</v>
+        <v>45649</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7786,8 +7693,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7831,7 +7743,7 @@
         <v>44482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7886,14 +7798,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33181-2025</t>
+          <t>A 31295-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45840.59094907407</v>
+        <v>45103</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7905,8 +7817,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>9.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7943,14 +7860,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33666-2025</t>
+          <t>A 53789-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45841.67148148148</v>
+        <v>44880.49702546297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7962,13 +7879,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>12.8</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8005,14 +7917,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33622-2025</t>
+          <t>A 12489-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45841.63055555556</v>
+        <v>44999.69774305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8024,13 +7936,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8067,14 +7974,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43638-2025</t>
+          <t>A 15114-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45911.73936342593</v>
+        <v>45399.68209490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +7994,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8124,14 +8031,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37066-2023</t>
+          <t>A 39095-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45155</v>
+        <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8143,8 +8050,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8181,14 +8093,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40864-2025</t>
+          <t>A 52366-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45897</v>
+        <v>45608</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8206,7 +8118,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8243,14 +8155,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46085-2024</t>
+          <t>A 46146-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45581</v>
+        <v>44847.4584375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8262,8 +8174,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8300,14 +8217,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44479-2025</t>
+          <t>A 1683-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45916.64740740741</v>
+        <v>44938</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8325,7 +8242,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>14.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8362,14 +8279,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17276-2023</t>
+          <t>A 59630-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45035</v>
+        <v>45638.90166666666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8382,7 +8299,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8419,14 +8336,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35079-2025</t>
+          <t>A 31357-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45852.48940972222</v>
+        <v>45832</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8438,13 +8355,8 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8481,14 +8393,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35071-2025</t>
+          <t>A 19857-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45852.47094907407</v>
+        <v>44694</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8502,11 +8414,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8543,14 +8455,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45045-2025</t>
+          <t>A 7903-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45919.26885416666</v>
+        <v>44607</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8562,8 +8474,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8600,14 +8517,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45785-2025</t>
+          <t>A 33976-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45923.55998842593</v>
+        <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8619,8 +8536,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8657,14 +8579,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46492-2025</t>
+          <t>A 62843-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45925</v>
+        <v>44503</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8682,7 +8604,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8719,14 +8641,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 122-2025</t>
+          <t>A 42761-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45659.54782407408</v>
+        <v>45177</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8739,7 +8661,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8776,14 +8698,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36425-2025</t>
+          <t>A 39234-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45868</v>
+        <v>45889.33067129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8795,8 +8717,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8833,14 +8760,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 32012-2025</t>
+          <t>A 39514-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45835.39809027778</v>
+        <v>45890.41994212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8854,11 +8781,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>10.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8895,14 +8822,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47023-2025</t>
+          <t>A 40442-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45929.57790509259</v>
+        <v>45555.48539351852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8915,7 +8842,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8952,14 +8879,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47017-2025</t>
+          <t>A 59497-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45929.57561342593</v>
+        <v>45638.5459375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8972,7 +8899,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9009,14 +8936,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41610-2025</t>
+          <t>A 31549-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45901</v>
+        <v>44369</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9034,7 +8961,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9071,14 +8998,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47549-2025</t>
+          <t>A 29595-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45931.36796296296</v>
+        <v>45825</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9091,7 +9018,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9128,14 +9055,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 59629-2024</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45638.89961805556</v>
+        <v>45895</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9147,8 +9074,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>11.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9185,14 +9117,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47411-2025</t>
+          <t>A 40477-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45930.61648148148</v>
+        <v>45895</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9204,8 +9136,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9242,14 +9179,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32010-2025</t>
+          <t>A 40852-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45835.39456018519</v>
+        <v>45897</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9263,11 +9200,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9304,14 +9241,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24921-2023</t>
+          <t>A 22887-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45085</v>
+        <v>45448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9324,7 +9261,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9361,14 +9298,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48204-2025</t>
+          <t>A 41032-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45933.48327546296</v>
+        <v>45897</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9380,8 +9317,13 @@
           <t>LJUSNARSBERG</t>
         </is>
       </c>
+      <c r="F142" t="inli